--- a/Curva ad S.xlsx
+++ b/Curva ad S.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattia\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiasb\Desktop\GreenUrban_PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBA5B74-529B-4D27-BEC6-645943BDFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EEE6EA-7C95-4949-8A83-286AB1796DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B994825-C8D9-4FDA-83DA-6EDF7C872A4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Sett. 1</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>Sett. 92</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
 </sst>
 </file>
@@ -324,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +347,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -393,6 +397,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,9 +509,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Costi incrementali</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -518,9 +525,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Foglio1!$B$2:$B$93,Foglio1!$B$2,Foglio1!$B$3,Foglio1!$B$4,Foglio1!$B$5,Foglio1!$B$6,Foglio1!$B$7,Foglio1!$B$8,Foglio1!$B$9,Foglio1!$B$10,Foglio1!$B$11,Foglio1!$B$12,Foglio1!$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$35,Foglio1!$B$36,Foglio1!$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93,Foglio1!$B$2:$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93,Foglio1!$B$2:$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93)</c:f>
+              <c:f>Foglio1!$B$2:$B$93</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>Sett. 1</c:v>
                 </c:pt>
@@ -795,834 +802,6 @@
                   <c:v>Sett. 91</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="367">
                   <c:v>Sett. 92</c:v>
                 </c:pt>
               </c:strCache>
@@ -1630,18 +809,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$2:$C$93</c:f>
+              <c:f>Foglio1!$C$3:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>5882.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11764.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5882.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11764.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5882.35</c:v>
@@ -1650,7 +829,7 @@
                   <c:v>5882.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5882.35</c:v>
+                  <c:v>14705.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14705.88</c:v>
@@ -1665,22 +844,22 @@
                   <c:v>14705.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14705.88</c:v>
+                  <c:v>8823.5300000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8823.5300000000007</c:v>
+                  <c:v>29411.759999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29411.759999999998</c:v>
+                  <c:v>55882.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>55882.35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55882.35</c:v>
+                  <c:v>35294.120000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35294.120000000003</c:v>
+                  <c:v>23529.41</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>23529.41</c:v>
@@ -1695,67 +874,67 @@
                   <c:v>23529.41</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23529.41</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50000</c:v>
+                  <c:v>61764.71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61764.71</c:v>
+                  <c:v>70588.240000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>67647.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>70588.240000000005</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>67647.06</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>70588.240000000005</c:v>
+                  <c:v>97058.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97058.82</c:v>
+                  <c:v>85294.12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85294.12</c:v>
+                  <c:v>73529.41</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>73529.41</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>73529.41</c:v>
+                  <c:v>44117.65</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44117.65</c:v>
+                  <c:v>67647.06</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67647.06</c:v>
+                  <c:v>58823.53</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58823.53</c:v>
+                  <c:v>47058.82</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>47058.82</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>41176.47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55882.35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58823.53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44117.65</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>47058.82</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41176.47</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>55882.35</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>58823.53</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44117.65</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>47058.82</c:v>
@@ -1764,10 +943,10 @@
                   <c:v>47058.82</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>47058.82</c:v>
+                  <c:v>38235.29</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38235.29</c:v>
+                  <c:v>29411.759999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>29411.759999999998</c:v>
@@ -1785,7 +964,7 @@
                   <c:v>29411.759999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>29411.759999999998</c:v>
+                  <c:v>20588.240000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>20588.240000000002</c:v>
@@ -1797,7 +976,7 @@
                   <c:v>20588.240000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20588.240000000002</c:v>
+                  <c:v>11764.71</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>11764.71</c:v>
@@ -1809,10 +988,10 @@
                   <c:v>11764.71</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11764.71</c:v>
+                  <c:v>5882.35</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5882.35</c:v>
+                  <c:v>14705.88</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>14705.88</c:v>
@@ -1827,7 +1006,7 @@
                   <c:v>14705.88</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14705.88</c:v>
+                  <c:v>11764.71</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>11764.71</c:v>
@@ -1842,10 +1021,10 @@
                   <c:v>11764.71</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>14705.88</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>14705.88</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>11764.71</c:v>
@@ -1860,10 +1039,10 @@
                   <c:v>11764.71</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>5882.35</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5882.35</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>11764.71</c:v>
@@ -1893,7 +1072,7 @@
                   <c:v>11764.71</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>11764.71</c:v>
+                  <c:v>14705.88</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>14705.88</c:v>
@@ -1905,9 +1084,6 @@
                   <c:v>14705.88</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="91">
                   <c:v>14705.88</c:v>
                 </c:pt>
               </c:numCache>
@@ -1922,9 +1098,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Fondi incrementali</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx2">
@@ -1945,9 +1118,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Foglio1!$B$2:$B$93,Foglio1!$B$2,Foglio1!$B$3,Foglio1!$B$4,Foglio1!$B$5,Foglio1!$B$6,Foglio1!$B$7,Foglio1!$B$8,Foglio1!$B$9,Foglio1!$B$10,Foglio1!$B$11,Foglio1!$B$12,Foglio1!$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$35,Foglio1!$B$36,Foglio1!$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93,Foglio1!$B$2:$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93,Foglio1!$B$2:$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93)</c:f>
+              <c:f>Foglio1!$B$2:$B$93</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>Sett. 1</c:v>
                 </c:pt>
@@ -2222,834 +1395,6 @@
                   <c:v>Sett. 91</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="367">
                   <c:v>Sett. 92</c:v>
                 </c:pt>
               </c:strCache>
@@ -3057,142 +1402,142 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$2:$E$93</c:f>
+              <c:f>Foglio1!$E$3:$E$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
                   <c:v>150000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3205,15 +1550,15 @@
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3241,8 +1586,8 @@
                 <c:pt idx="59">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="60" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>200000</c:v>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0</c:v>
@@ -3250,8 +1595,8 @@
                 <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
+                <c:pt idx="63" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -3277,8 +1622,8 @@
                 <c:pt idx="71">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="72" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>100000</c:v>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0</c:v>
@@ -3313,8 +1658,8 @@
                 <c:pt idx="83">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="84" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>100000</c:v>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
@@ -3331,11 +1676,8 @@
                 <c:pt idx="89">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
+                <c:pt idx="90" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,9 +1706,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Costi cumulativi</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3385,9 +1724,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Foglio1!$B$2:$B$93,Foglio1!$B$2,Foglio1!$B$3,Foglio1!$B$4,Foglio1!$B$5,Foglio1!$B$6,Foglio1!$B$7,Foglio1!$B$8,Foglio1!$B$9,Foglio1!$B$10,Foglio1!$B$11,Foglio1!$B$12,Foglio1!$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$35,Foglio1!$B$36,Foglio1!$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93,Foglio1!$B$2:$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93,Foglio1!$B$2:$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93)</c:f>
+              <c:f>Foglio1!$B$2:$B$93</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>Sett. 1</c:v>
                 </c:pt>
@@ -3662,834 +2001,6 @@
                   <c:v>Sett. 91</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="367">
                   <c:v>Sett. 92</c:v>
                 </c:pt>
               </c:strCache>
@@ -4497,284 +2008,281 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$2:$D$93</c:f>
+              <c:f>Foglio1!$D$3:$D$93</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>5882.35</c:v>
+                  <c:v>17647.060000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17647.060000000001</c:v>
+                  <c:v>23529.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23529.41</c:v>
+                  <c:v>29411.759999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29411.759999999998</c:v>
+                  <c:v>35294.120000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35294.120000000003</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
+                  <c:v>64705.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64705.88</c:v>
+                  <c:v>79411.759999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79411.759999999995</c:v>
+                  <c:v>94117.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94117.65</c:v>
+                  <c:v>108823.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108823.53</c:v>
+                  <c:v>117647.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117647.06</c:v>
+                  <c:v>147058.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147058.82</c:v>
+                  <c:v>176470.59</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>176470.59</c:v>
+                  <c:v>232352.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>232352.94</c:v>
+                  <c:v>288235.28999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>288235.28999999998</c:v>
+                  <c:v>323529.40999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>323529.40999999997</c:v>
+                  <c:v>347058.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>347058.82</c:v>
+                  <c:v>370588.24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>370588.24</c:v>
+                  <c:v>394117.65</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>394117.65</c:v>
+                  <c:v>417647.06</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>417647.06</c:v>
+                  <c:v>441176.47</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>441176.47</c:v>
+                  <c:v>491176.47</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>491176.47</c:v>
+                  <c:v>552941.18000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>552941.18000000005</c:v>
+                  <c:v>623529.41</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>623529.41</c:v>
+                  <c:v>691176.47</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>691176.47</c:v>
+                  <c:v>761764.71</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>761764.71</c:v>
+                  <c:v>858823.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>858823.53</c:v>
+                  <c:v>944117.65</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>944117.65</c:v>
+                  <c:v>1017647.06</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1017647.06</c:v>
+                  <c:v>1091176.47</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1091176.47</c:v>
+                  <c:v>1135294.1200000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1135294.1200000001</c:v>
+                  <c:v>1202941.18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1202941.18</c:v>
+                  <c:v>1261764.71</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1261764.71</c:v>
+                  <c:v>1308823.53</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1308823.53</c:v>
+                  <c:v>1355882.35</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1355882.35</c:v>
+                  <c:v>1397058.82</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1397058.82</c:v>
+                  <c:v>1447058.82</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1447058.82</c:v>
+                  <c:v>1502941.18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1502941.18</c:v>
+                  <c:v>1552941.18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1552941.18</c:v>
+                  <c:v>1611764.71</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1611764.71</c:v>
+                  <c:v>1655882.35</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1655882.35</c:v>
+                  <c:v>1702941.18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1702941.18</c:v>
+                  <c:v>1750000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1750000</c:v>
+                  <c:v>1797058.82</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1797058.82</c:v>
+                  <c:v>1835294.12</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1835294.12</c:v>
+                  <c:v>1864705.88</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1864705.88</c:v>
+                  <c:v>1894117.65</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1894117.65</c:v>
+                  <c:v>1923529.41</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1923529.41</c:v>
+                  <c:v>1952941.18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1952941.18</c:v>
+                  <c:v>1982352.94</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1982352.94</c:v>
+                  <c:v>2011764.71</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2011764.71</c:v>
+                  <c:v>2032352.94</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2032352.94</c:v>
+                  <c:v>2052941.18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2052941.18</c:v>
+                  <c:v>2073529.41</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2073529.41</c:v>
+                  <c:v>2094117.65</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2094117.65</c:v>
+                  <c:v>2105882.35</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2105882.35</c:v>
+                  <c:v>2117647.06</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2117647.06</c:v>
+                  <c:v>2129411.7599999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2129411.7599999998</c:v>
+                  <c:v>2141176.4700000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2141176.4700000002</c:v>
+                  <c:v>2147058.8199999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2147058.8199999998</c:v>
+                  <c:v>2161764.71</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2161764.71</c:v>
+                  <c:v>2176470.59</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2176470.59</c:v>
+                  <c:v>2191176.4700000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2191176.4700000002</c:v>
+                  <c:v>2205882.35</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2205882.35</c:v>
+                  <c:v>2220588.2400000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2220588.2400000002</c:v>
+                  <c:v>2232352.94</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2232352.94</c:v>
+                  <c:v>2244117.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2244117.65</c:v>
+                  <c:v>2255882.35</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2255882.35</c:v>
+                  <c:v>2267647.06</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2267647.06</c:v>
+                  <c:v>2279411.7599999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2279411.7599999998</c:v>
+                  <c:v>2294117.65</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2294117.65</c:v>
+                  <c:v>2305882.35</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2305882.35</c:v>
+                  <c:v>2317647.06</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2317647.06</c:v>
+                  <c:v>2329411.7599999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2329411.7599999998</c:v>
+                  <c:v>2341176.4700000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2341176.4700000002</c:v>
+                  <c:v>2352941.1800000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2352941.1800000002</c:v>
+                  <c:v>2358823.5299999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2358823.5299999998</c:v>
+                  <c:v>2370588.2400000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2370588.2400000002</c:v>
+                  <c:v>2382352.94</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2382352.94</c:v>
+                  <c:v>2394117.65</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2394117.65</c:v>
+                  <c:v>2405882.35</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2405882.35</c:v>
+                  <c:v>2417647.06</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2417647.06</c:v>
+                  <c:v>2429411.7599999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2429411.7599999998</c:v>
+                  <c:v>2441176.4700000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2441176.4700000002</c:v>
+                  <c:v>2452941.1800000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2452941.1800000002</c:v>
+                  <c:v>2464705.88</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2464705.88</c:v>
+                  <c:v>2476470.59</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2476470.59</c:v>
+                  <c:v>2491176.4700000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2491176.4700000002</c:v>
+                  <c:v>2505882.35</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2505882.35</c:v>
+                  <c:v>2520588.2400000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2520588.2400000002</c:v>
+                  <c:v>2535294.12</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2535294.12</c:v>
-                </c:pt>
-                <c:pt idx="91">
                   <c:v>2550000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4790,9 +2298,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Fondi cumulativi</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
@@ -4811,9 +2316,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Foglio1!$B$2:$B$93,Foglio1!$B$2,Foglio1!$B$3,Foglio1!$B$4,Foglio1!$B$5,Foglio1!$B$6,Foglio1!$B$7,Foglio1!$B$8,Foglio1!$B$9,Foglio1!$B$10,Foglio1!$B$11,Foglio1!$B$12,Foglio1!$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$35,Foglio1!$B$36,Foglio1!$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93,Foglio1!$B$2:$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93,Foglio1!$B$2:$B$13,Foglio1!$B$14:$B$25,Foglio1!$B$26:$B$37,Foglio1!$B$38:$B$49,Foglio1!$B$50:$B$61,Foglio1!$B$62:$B$73,Foglio1!$B$74:$B$85,Foglio1!$B$86:$B$93)</c:f>
+              <c:f>Foglio1!$B$2:$B$93</c:f>
               <c:strCache>
-                <c:ptCount val="368"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>Sett. 1</c:v>
                 </c:pt>
@@ -5088,834 +2593,6 @@
                   <c:v>Sett. 91</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>Sett. 92</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>Sett. 1</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>Sett. 2</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>Sett. 3</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>Sett. 4</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>Sett. 5</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>Sett. 6</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>Sett. 7</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>Sett. 8</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>Sett. 9</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>Sett. 10</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>Sett. 11</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>Sett. 12</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>Sett. 13</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>Sett. 14</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>Sett. 15</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>Sett. 16</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>Sett. 17</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>Sett. 18</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>Sett. 19</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>Sett. 20</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>Sett. 21</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>Sett. 22</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>Sett. 23</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>Sett. 24</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>Sett. 25</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>Sett. 26</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>Sett. 27</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>Sett. 28</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>Sett. 29</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>Sett. 30</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>Sett. 31</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>Sett. 32</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>Sett. 33</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>Sett. 34</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>Sett. 35</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>Sett. 36</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>Sett. 37</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>Sett. 38</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>Sett. 39</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>Sett. 40</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>Sett. 41</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>Sett. 42</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>Sett. 43</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>Sett. 44</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>Sett. 45</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>Sett. 46</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>Sett. 47</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>Sett. 48</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>Sett. 49</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="367">
                   <c:v>Sett. 92</c:v>
                 </c:pt>
               </c:strCache>
@@ -5923,261 +2600,261 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$2:$F$93</c:f>
+              <c:f>Foglio1!$F$3:$F$93</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>650000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>650000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>650000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>650000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>650000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>650000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>650000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>650000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>650000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>650000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>650000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>650000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1450000</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1450000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1450000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1950000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1950000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1950000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1950000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1950000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1950000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1950000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1950000</c:v>
+                  <c:v>2050000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1950000</c:v>
+                  <c:v>2050000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1950000</c:v>
+                  <c:v>2050000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1950000</c:v>
+                  <c:v>2050000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1950000</c:v>
+                  <c:v>2050000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2150000</c:v>
+                  <c:v>2050000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2150000</c:v>
+                  <c:v>2050000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2150000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2350000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2350000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2350000</c:v>
+                  <c:v>2250000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2350000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2450000</c:v>
+                  <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2550000</c:v>
@@ -6198,10 +2875,7 @@
                   <c:v>2550000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2550000</c:v>
+                  <c:v>2600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7040,16 +3714,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85861</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188762</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240321</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>150147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>472814</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104229</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>378091</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65614</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7394,13 +4068,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132D7FCD-E63B-4E21-BAD9-BCAF5A9D2284}">
-  <dimension ref="B2:F94"/>
+  <dimension ref="B2:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W124" sqref="W124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -7413,10 +4095,10 @@
         <v>5882.35</v>
       </c>
       <c r="E2" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="F2" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -7433,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -7450,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -7467,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -7484,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -7501,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -7518,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -7535,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -7552,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -7565,11 +4247,11 @@
       <c r="D11" s="2">
         <v>108823.53</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
+      <c r="E11" s="2">
+        <v>400000</v>
       </c>
       <c r="F11" s="2">
-        <v>150000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -7586,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>150000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -7603,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>150000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -7616,11 +4298,11 @@
       <c r="D14" s="2">
         <v>176470.59</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>500000</v>
-      </c>
-      <c r="F14" s="2">
-        <v>650000</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -7637,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>650000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -7654,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>650000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -7671,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>650000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -7688,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>650000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -7705,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>650000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -7722,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>650000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -7735,11 +4417,11 @@
       <c r="D21" s="2">
         <v>417647.06</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>900000</v>
       </c>
       <c r="F21" s="2">
-        <v>650000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -7756,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>650000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -7773,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>650000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -7790,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>650000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -7807,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>650000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -7820,11 +4502,11 @@
       <c r="D26" s="2">
         <v>691176.47</v>
       </c>
-      <c r="E26" s="2">
-        <v>800000</v>
+      <c r="E26" s="3">
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -7841,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -7858,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -7875,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -7892,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -7909,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -7926,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -7943,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -7960,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -7977,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -7994,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>1450000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -8007,11 +4689,11 @@
       <c r="D37" s="2">
         <v>1397058.82</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
+      <c r="E37" s="2">
+        <v>500000</v>
       </c>
       <c r="F37" s="2">
-        <v>1450000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -8024,11 +4706,11 @@
       <c r="D38" s="2">
         <v>1447058.82</v>
       </c>
-      <c r="E38" s="2">
-        <v>500000</v>
+      <c r="E38" s="3">
+        <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>1950000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -8045,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>1950000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -8062,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>1950000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -8079,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>1950000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -8096,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>1950000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -8113,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>1950000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -8130,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>1950000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -8147,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>1950000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -8160,11 +4842,11 @@
       <c r="D46" s="2">
         <v>1835294.12</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
+      <c r="E46" s="2">
+        <v>150000</v>
       </c>
       <c r="F46" s="2">
-        <v>1950000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -8181,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>1950000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -8198,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>1950000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -8215,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="2">
-        <v>1950000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -8228,11 +4910,11 @@
       <c r="D50" s="2">
         <v>1952941.18</v>
       </c>
-      <c r="E50" s="2">
-        <v>200000</v>
+      <c r="E50" s="3">
+        <v>0</v>
       </c>
       <c r="F50" s="2">
-        <v>2150000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -8249,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>2150000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -8266,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>2150000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -8279,11 +4961,11 @@
       <c r="D53" s="2">
         <v>2032352.94</v>
       </c>
-      <c r="E53" s="3">
-        <v>0</v>
+      <c r="E53" s="2">
+        <v>200000</v>
       </c>
       <c r="F53" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -8300,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -8317,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -8334,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -8351,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -8368,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -8385,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -8402,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -8419,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="2">
-        <v>2150000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -8432,11 +5114,11 @@
       <c r="D62" s="2">
         <v>2161764.71</v>
       </c>
-      <c r="E62" s="2">
-        <v>200000</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="2">
-        <v>2350000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -8453,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>2350000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -8470,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="2">
-        <v>2350000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -8487,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2">
-        <v>2350000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -8500,11 +5182,11 @@
       <c r="D66" s="2">
         <v>2220588.2400000002</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
+      <c r="E66" s="2">
+        <v>300000</v>
       </c>
       <c r="F66" s="2">
-        <v>2350000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -8521,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>2350000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -8538,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>2350000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -8555,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="2">
-        <v>2350000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -8572,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="2">
-        <v>2350000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -8589,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="2">
-        <v>2350000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -8606,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>2350000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -8623,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>2350000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -8636,11 +5318,11 @@
       <c r="D74" s="2">
         <v>2317647.06</v>
       </c>
-      <c r="E74" s="2">
-        <v>100000</v>
+      <c r="E74" s="3">
+        <v>0</v>
       </c>
       <c r="F74" s="2">
-        <v>2450000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -8657,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="2">
-        <v>2450000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -8674,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2">
-        <v>2450000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -8691,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2">
-        <v>2450000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -8708,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2">
-        <v>2450000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -8725,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2">
-        <v>2450000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
@@ -8742,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="F80" s="2">
-        <v>2450000</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
@@ -8759,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="2">
-        <v>2450000</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
@@ -8776,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="2">
-        <v>2450000</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
@@ -8793,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="2">
-        <v>2450000</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
@@ -8810,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="F84" s="2">
-        <v>2450000</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
@@ -8827,10 +5509,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="2">
-        <v>2450000</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
@@ -8840,14 +5522,14 @@
       <c r="D86" s="2">
         <v>2452941.1800000002</v>
       </c>
-      <c r="E86" s="2">
-        <v>100000</v>
+      <c r="E86" s="3">
+        <v>0</v>
       </c>
       <c r="F86" s="2">
         <v>2550000</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
@@ -8864,7 +5546,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
@@ -8881,7 +5563,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
@@ -8898,7 +5580,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>88</v>
       </c>
@@ -8915,7 +5597,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
@@ -8932,7 +5614,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
@@ -8949,7 +5631,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
@@ -8959,17 +5641,27 @@
       <c r="D93" s="2">
         <v>2550000</v>
       </c>
-      <c r="E93" s="3">
-        <v>0</v>
+      <c r="E93" s="2">
+        <v>50000</v>
       </c>
       <c r="F93" s="2">
-        <v>2550000</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>2600000</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J94" s="8"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J96" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Curva ad S.xlsx
+++ b/Curva ad S.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiasb\Desktop\GreenUrban_PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EEE6EA-7C95-4949-8A83-286AB1796DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70683241-9A23-42BF-8DC1-FCD5F39E2317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B994825-C8D9-4FDA-83DA-6EDF7C872A4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
   <si>
     <t>Sett. 1</t>
   </si>
@@ -313,6 +313,52 @@
   <si>
     <t>Sett. 92</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fondi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: devono essere il massimo a nostro parere. Sul progetto campione superano il tetto massimo del budget esclusa la riserva di cont. (Impossibile?). Mentre i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">costi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>possono portare anche minori.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +400,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -363,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -371,11 +430,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -386,22 +545,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,7 +682,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Curva ad S</a:t>
+              <a:t>Curva ad S Vecchio</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -511,23 +728,19 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:softEdge rad="0"/>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$2:$B$93</c:f>
+              <c:f>Foglio1!$B$2:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="92"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>Sett. 1</c:v>
                 </c:pt>
@@ -677,142 +890,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>Sett. 92</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$3:$C$93</c:f>
+              <c:f>Foglio1!$C$3:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>5882.35</c:v>
                 </c:pt>
@@ -959,132 +1046,6 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>29411.759999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>29411.759999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>20588.240000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>20588.240000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>20588.240000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20588.240000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5882.35</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5882.35</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>11764.71</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>14705.88</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>14705.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,27 +1061,19 @@
           <c:order val="3"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$2:$B$93</c:f>
+              <c:f>Foglio1!$B$2:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="92"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>Sett. 1</c:v>
                 </c:pt>
@@ -1270,142 +1223,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>Sett. 92</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$3:$E$93</c:f>
+              <c:f>Foglio1!$E$3:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1552,132 +1379,6 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,24 +1410,20 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="26408B"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="bg1"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$2:$B$93</c:f>
+              <c:f>Foglio1!$B$2:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="92"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>Sett. 1</c:v>
                 </c:pt>
@@ -1876,142 +1573,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>Sett. 92</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$3:$D$93</c:f>
+              <c:f>Foglio1!$D$3:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>17647.060000000001</c:v>
                 </c:pt>
@@ -2158,132 +1729,6 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1982352.94</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2011764.71</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2032352.94</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2052941.18</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2073529.41</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2094117.65</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2105882.35</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2117647.06</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2129411.7599999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2141176.4700000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2147058.8199999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2161764.71</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2176470.59</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2191176.4700000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2205882.35</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2220588.2400000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2232352.94</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2244117.65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2255882.35</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2267647.06</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2279411.7599999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2294117.65</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2305882.35</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2317647.06</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2329411.7599999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2341176.4700000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2352941.1800000002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2358823.5299999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2370588.2400000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2382352.94</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2394117.65</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2405882.35</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2417647.06</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2429411.7599999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2441176.4700000002</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2452941.1800000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2464705.88</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2476470.59</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2491176.4700000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2505882.35</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2520588.2400000002</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2535294.12</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2550000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,26 +1744,22 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="EFA00B"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="bg1"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$2:$B$93</c:f>
+              <c:f>Foglio1!$B$2:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="92"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>Sett. 1</c:v>
                 </c:pt>
@@ -2468,142 +1909,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>Sett. 50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Sett. 51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Sett. 52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Sett. 53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Sett. 54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Sett. 55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Sett. 56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Sett. 57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Sett. 58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Sett. 59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Sett. 60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Sett. 61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Sett. 62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Sett. 63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Sett. 64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Sett. 65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Sett. 66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Sett. 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Sett. 68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Sett. 69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Sett. 70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Sett. 71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Sett. 72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Sett. 73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Sett. 74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Sett. 75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Sett. 76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Sett. 77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Sett. 78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Sett. 79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Sett. 80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>Sett. 81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Sett. 82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Sett. 83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Sett. 84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Sett. 85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Sett. 86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Sett. 87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Sett. 88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Sett. 89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Sett. 90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Sett. 91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>Sett. 92</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$3:$F$93</c:f>
+              <c:f>Foglio1!$F$3:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -2750,132 +2065,6 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2050000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2050000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3154,7 +2343,2528 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Curva ad S Aggiornata</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Costi incrementali</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$DA$59:$DA$150</c:f>
+              <c:strCache>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>Sett. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sett. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sett. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sett. 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sett. 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sett. 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sett. 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sett. 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sett. 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sett. 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sett. 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sett. 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sett. 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sett. 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sett. 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sett. 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sett. 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sett. 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sett. 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sett. 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sett. 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sett. 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sett. 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sett. 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sett. 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sett. 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sett. 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sett. 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sett. 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sett. 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sett. 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sett. 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sett. 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sett. 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sett. 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sett. 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sett. 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sett. 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sett. 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sett. 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sett. 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sett. 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Sett. 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sett. 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sett. 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sett. 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Sett. 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Sett. 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sett. 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Sett. 50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Sett. 51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Sett. 52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Sett. 53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Sett. 54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Sett. 55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Sett. 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Sett. 57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Sett. 58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Sett. 59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Sett. 60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Sett. 61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Sett. 62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Sett. 63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sett. 64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Sett. 65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Sett. 66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Sett. 67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Sett. 68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Sett. 69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Sett. 70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Sett. 71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Sett. 72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Sett. 73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Sett. 74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Sett. 75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Sett. 76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Sett. 77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Sett. 78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Sett. 79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Sett. 80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Sett. 81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Sett. 82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Sett. 83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Sett. 84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Sett. 85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Sett. 86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Sett. 87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Sett. 88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Sett. 89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Sett. 90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Sett. 91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Sett. 92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$DB$59:$DB$150</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>3213.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8034.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4820.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4820.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4820.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16068.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16068.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16068.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11247.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103621.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103621.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36956.519999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60233.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76301.929999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84335.96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77908.740000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102010.82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>148834.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116948.59</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107307.76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86192.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43633.74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62915.41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58094.99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48430.69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48430.69</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40396.660000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40170.129999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43383.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40170.129999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43383.74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27315.69</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19281.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14461.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14461.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14461.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="#,##0.00">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="#,##0.00">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="#,##0.00">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42E2-4F32-9F22-2520C28FB7F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fondi incrementali</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EFA00B"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$DA$59:$DA$150</c:f>
+              <c:strCache>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>Sett. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sett. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sett. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sett. 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sett. 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sett. 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sett. 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sett. 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sett. 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sett. 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sett. 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sett. 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sett. 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sett. 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sett. 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sett. 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sett. 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sett. 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sett. 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sett. 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sett. 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sett. 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sett. 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sett. 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sett. 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sett. 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sett. 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sett. 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sett. 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sett. 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sett. 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sett. 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sett. 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sett. 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sett. 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sett. 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sett. 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sett. 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sett. 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sett. 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sett. 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sett. 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Sett. 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sett. 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sett. 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sett. 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Sett. 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Sett. 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sett. 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Sett. 50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Sett. 51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Sett. 52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Sett. 53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Sett. 54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Sett. 55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Sett. 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Sett. 57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Sett. 58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Sett. 59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Sett. 60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Sett. 61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Sett. 62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Sett. 63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sett. 64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Sett. 65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Sett. 66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Sett. 67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Sett. 68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Sett. 69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Sett. 70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Sett. 71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Sett. 72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Sett. 73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Sett. 74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Sett. 75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Sett. 76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Sett. 77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Sett. 78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Sett. 79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Sett. 80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Sett. 81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Sett. 82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Sett. 83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Sett. 84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Sett. 85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Sett. 86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Sett. 87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Sett. 88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Sett. 89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Sett. 90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Sett. 91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Sett. 92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$DD$59:$DD$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42E2-4F32-9F22-2520C28FB7F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="655840496"/>
+        <c:axId val="655842416"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Costi comulativi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="26408B"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$2:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Sett. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sett. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sett. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sett. 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sett. 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sett. 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sett. 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sett. 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sett. 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sett. 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sett. 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sett. 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sett. 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sett. 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sett. 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sett. 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sett. 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sett. 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sett. 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sett. 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sett. 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sett. 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sett. 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sett. 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sett. 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sett. 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sett. 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sett. 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sett. 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sett. 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sett. 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sett. 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sett. 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sett. 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sett. 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sett. 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sett. 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sett. 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sett. 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sett. 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sett. 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sett. 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Sett. 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sett. 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sett. 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sett. 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Sett. 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Sett. 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sett. 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Sett. 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$DC$59:$DC$150</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>3213.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11247.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16068.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20888.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25708.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38563.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51417.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67485.820000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83553.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99621.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110869.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>141398.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171928.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>275550.09000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>379172.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>416128.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>440230.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>464332.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>488434.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>512536.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536638.93999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>596872.81999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>673174.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>757510.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>835419.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>937430.27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1086264.97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1203213.56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1310521.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1396714.08</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1440347.83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1503263.23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1561358.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1609788.91</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1658219.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1698616.26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1738786.39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1782170.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1822340.26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1865724.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1896253.31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1926782.61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1957311.91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1987841.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2015156.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2039258.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2063361.06</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2087463.14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2111565.2200000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2135667.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2159769.38</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2179051.04</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2193512.29</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2207973.5299999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2222434.7799999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2232075.61</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2241716.4500000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2251357.2799999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2260998.11</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2267425.33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2277066.16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2286706.9900000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2296347.83</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2305988.66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2315629.4900000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2325270.3199999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2334911.15</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2344551.98</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2354192.8199999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2363833.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2376688.09</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2386328.92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2395969.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2405610.59</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2415251.42</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2424892.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2431319.4700000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2444173.91</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2457028.36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2469882.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2482737.2400000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2495591.6800000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2508446.12</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2521300.5699999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2534155.0099999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2547009.4500000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2559863.89</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2566291.12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2572718.34</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2579145.56</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2585572.7799999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2592000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42E2-4F32-9F22-2520C28FB7F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Fondi comulativi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$2:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Sett. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sett. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sett. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sett. 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sett. 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sett. 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sett. 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sett. 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sett. 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sett. 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sett. 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sett. 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sett. 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sett. 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sett. 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sett. 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sett. 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sett. 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sett. 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sett. 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sett. 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sett. 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sett. 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sett. 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sett. 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sett. 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sett. 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sett. 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sett. 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sett. 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sett. 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sett. 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sett. 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sett. 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sett. 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sett. 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sett. 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sett. 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sett. 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sett. 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sett. 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sett. 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Sett. 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sett. 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sett. 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sett. 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Sett. 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Sett. 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sett. 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Sett. 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$DE$59:$DE$150</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2620000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42E2-4F32-9F22-2520C28FB7F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="655840496"/>
+        <c:axId val="655842416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655840496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655842416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655842416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655840496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="26408B"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="EFA00B"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3710,6 +5420,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3743,6 +5969,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>389282</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>430695</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>121709</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D53424-1B57-4258-9BA4-58A746035E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4068,20 +6332,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132D7FCD-E63B-4E21-BAD9-BCAF5A9D2284}">
-  <dimension ref="B2:N96"/>
+  <dimension ref="B2:DE255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W124" sqref="W124"/>
+    <sheetView tabSelected="1" topLeftCell="DE58" zoomScale="107" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="DH141" sqref="DH141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -4883,7 +7162,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
@@ -4900,7 +7179,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
@@ -4917,7 +7196,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:109" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
@@ -4934,734 +7213,3717 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="2:109" x14ac:dyDescent="0.25">
+      <c r="W52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X52" s="5">
+        <v>12854.44</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>2505009.4500000002</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>2550000</v>
+      </c>
+      <c r="AH52" s="6">
+        <f t="shared" ref="AH52:AH58" si="0">AA52-Y52</f>
+        <v>44990.549999999814</v>
+      </c>
+      <c r="CY52" s="4"/>
+    </row>
+    <row r="53" spans="2:109" x14ac:dyDescent="0.25">
+      <c r="W53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X53" s="5">
+        <v>12854.44</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>2517863.89</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>2550000</v>
+      </c>
+      <c r="AH53" s="6">
+        <f t="shared" si="0"/>
+        <v>32136.10999999987</v>
+      </c>
+    </row>
+    <row r="54" spans="2:109" x14ac:dyDescent="0.25">
+      <c r="W54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X54" s="2">
+        <v>6427.22</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>2524291.12</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>2550000</v>
+      </c>
+      <c r="AH54" s="6">
+        <f t="shared" si="0"/>
+        <v>25708.879999999888</v>
+      </c>
+    </row>
+    <row r="55" spans="2:109" x14ac:dyDescent="0.25">
+      <c r="W55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X55" s="2">
+        <v>6427.22</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>2530718.34</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>2550000</v>
+      </c>
+      <c r="AH55" s="6">
+        <f t="shared" si="0"/>
+        <v>19281.660000000149</v>
+      </c>
+    </row>
+    <row r="56" spans="2:109" x14ac:dyDescent="0.25">
+      <c r="W56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X56" s="2">
+        <v>6427.22</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>2537145.56</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>2550000</v>
+      </c>
+      <c r="AH56" s="6">
+        <f t="shared" si="0"/>
+        <v>12854.439999999944</v>
+      </c>
+    </row>
+    <row r="57" spans="2:109" x14ac:dyDescent="0.25">
+      <c r="W57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X57" s="2">
+        <v>6427.22</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>2543572.7799999998</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>2550000</v>
+      </c>
+      <c r="AH57" s="6">
+        <f t="shared" si="0"/>
+        <v>6427.2200000002049</v>
+      </c>
+    </row>
+    <row r="58" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="2">
+        <v>6427.22</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>2550000</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>2600000</v>
+      </c>
+      <c r="AH58" s="6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA59" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB59" s="7">
+        <v>3213.61</v>
+      </c>
+      <c r="DC59" s="8">
+        <v>3213.61</v>
+      </c>
+      <c r="DD59" s="8">
+        <v>100000</v>
+      </c>
+      <c r="DE59" s="8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA60" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB60" s="9">
+        <v>8034.03</v>
+      </c>
+      <c r="DC60" s="11">
+        <v>11247.64</v>
+      </c>
+      <c r="DD60" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE60" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA61" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB61" s="9">
+        <v>4820.42</v>
+      </c>
+      <c r="DC61" s="11">
+        <v>16068.05</v>
+      </c>
+      <c r="DD61" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE61" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA62" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB62" s="9">
+        <v>4820.42</v>
+      </c>
+      <c r="DC62" s="11">
+        <v>20888.47</v>
+      </c>
+      <c r="DD62" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE62" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA63" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="DB63" s="9">
+        <v>4820.42</v>
+      </c>
+      <c r="DC63" s="11">
+        <v>25708.880000000001</v>
+      </c>
+      <c r="DD63" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE63" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA64" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="DB64" s="9">
+        <v>12854.44</v>
+      </c>
+      <c r="DC64" s="11">
+        <v>38563.33</v>
+      </c>
+      <c r="DD64" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE64" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="65" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA65" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB65" s="9">
+        <v>12854.44</v>
+      </c>
+      <c r="DC65" s="11">
+        <v>51417.77</v>
+      </c>
+      <c r="DD65" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE65" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="66" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA66" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB66" s="9">
+        <v>16068.05</v>
+      </c>
+      <c r="DC66" s="11">
+        <v>67485.820000000007</v>
+      </c>
+      <c r="DD66" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE66" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="67" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA67" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="DB67" s="9">
+        <v>16068.05</v>
+      </c>
+      <c r="DC67" s="11">
+        <v>83553.88</v>
+      </c>
+      <c r="DD67" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE67" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="68" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA68" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB68" s="9">
+        <v>16068.05</v>
+      </c>
+      <c r="DC68" s="11">
+        <v>99621.93</v>
+      </c>
+      <c r="DD68" s="11">
+        <v>500000</v>
+      </c>
+      <c r="DE68" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="69" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA69" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="DB69" s="9">
+        <v>11247.64</v>
+      </c>
+      <c r="DC69" s="11">
+        <v>110869.57</v>
+      </c>
+      <c r="DD69" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE69" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="70" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA70" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="DB70" s="9">
+        <v>30529.3</v>
+      </c>
+      <c r="DC70" s="11">
+        <v>141398.87</v>
+      </c>
+      <c r="DD70" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE70" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="71" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA71" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="DB71" s="9">
+        <v>30529.3</v>
+      </c>
+      <c r="DC71" s="11">
+        <v>171928.17</v>
+      </c>
+      <c r="DD71" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE71" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="72" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA72" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="DB72" s="9">
+        <v>103621.93</v>
+      </c>
+      <c r="DC72" s="11">
+        <v>275550.09000000003</v>
+      </c>
+      <c r="DD72" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE72" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="73" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA73" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="DB73" s="9">
+        <v>103621.93</v>
+      </c>
+      <c r="DC73" s="11">
+        <v>379172.02</v>
+      </c>
+      <c r="DD73" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE73" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="74" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA74" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="DB74" s="9">
+        <v>36956.519999999997</v>
+      </c>
+      <c r="DC74" s="11">
+        <v>416128.54</v>
+      </c>
+      <c r="DD74" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE74" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="75" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA75" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="DB75" s="9">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC75" s="11">
+        <v>440230.62</v>
+      </c>
+      <c r="DD75" s="10">
+        <v>0</v>
+      </c>
+      <c r="DE75" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="76" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA76" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="DB76" s="12">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC76" s="14">
+        <v>464332.7</v>
+      </c>
+      <c r="DD76" s="13">
+        <v>0</v>
+      </c>
+      <c r="DE76" s="14">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="77" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA77" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="DB77" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC77" s="17">
+        <v>488434.78</v>
+      </c>
+      <c r="DD77" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE77" s="17">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="78" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA78" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="DB78" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC78" s="17">
+        <v>512536.86</v>
+      </c>
+      <c r="DD78" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="DE78" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="79" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA79" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="DB79" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC79" s="17">
+        <v>536638.93999999994</v>
+      </c>
+      <c r="DD79" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE79" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="80" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA80" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="DB80" s="15">
+        <v>60233.88</v>
+      </c>
+      <c r="DC80" s="17">
+        <v>596872.81999999995</v>
+      </c>
+      <c r="DD80" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE80" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="81" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA81" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB81" s="15">
+        <v>76301.929999999993</v>
+      </c>
+      <c r="DC81" s="17">
+        <v>673174.75</v>
+      </c>
+      <c r="DD81" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE81" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="82" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA82" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="DB82" s="15">
+        <v>84335.96</v>
+      </c>
+      <c r="DC82" s="17">
+        <v>757510.71</v>
+      </c>
+      <c r="DD82" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE82" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="83" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA83" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="DB83" s="15">
+        <v>77908.740000000005</v>
+      </c>
+      <c r="DC83" s="17">
+        <v>835419.45</v>
+      </c>
+      <c r="DD83" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE83" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="84" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA84" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="DB84" s="15">
+        <v>102010.82</v>
+      </c>
+      <c r="DC84" s="17">
+        <v>937430.27</v>
+      </c>
+      <c r="DD84" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE84" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="85" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA85" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="DB85" s="15">
+        <v>148834.70000000001</v>
+      </c>
+      <c r="DC85" s="17">
+        <v>1086264.97</v>
+      </c>
+      <c r="DD85" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE85" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="86" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA86" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="DB86" s="15">
+        <v>116948.59</v>
+      </c>
+      <c r="DC86" s="17">
+        <v>1203213.56</v>
+      </c>
+      <c r="DD86" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE86" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="87" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA87" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="DB87" s="15">
+        <v>107307.76</v>
+      </c>
+      <c r="DC87" s="17">
+        <v>1310521.32</v>
+      </c>
+      <c r="DD87" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE87" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="88" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA88" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="DB88" s="15">
+        <v>86192.76</v>
+      </c>
+      <c r="DC88" s="17">
+        <v>1396714.08</v>
+      </c>
+      <c r="DD88" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE88" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="89" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA89" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="DB89" s="15">
+        <v>43633.74</v>
+      </c>
+      <c r="DC89" s="17">
+        <v>1440347.83</v>
+      </c>
+      <c r="DD89" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE89" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="90" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA90" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB90" s="15">
+        <v>62915.41</v>
+      </c>
+      <c r="DC90" s="17">
+        <v>1503263.23</v>
+      </c>
+      <c r="DD90" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE90" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="91" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA91" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="DB91" s="15">
+        <v>58094.99</v>
+      </c>
+      <c r="DC91" s="17">
+        <v>1561358.22</v>
+      </c>
+      <c r="DD91" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE91" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="92" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA92" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB92" s="15">
+        <v>48430.69</v>
+      </c>
+      <c r="DC92" s="17">
+        <v>1609788.91</v>
+      </c>
+      <c r="DD92" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE92" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="93" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA93" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB93" s="15">
+        <v>48430.69</v>
+      </c>
+      <c r="DC93" s="17">
+        <v>1658219.6</v>
+      </c>
+      <c r="DD93" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE93" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="94" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA94" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB94" s="15">
+        <v>40396.660000000003</v>
+      </c>
+      <c r="DC94" s="17">
+        <v>1698616.26</v>
+      </c>
+      <c r="DD94" s="17">
+        <v>200000</v>
+      </c>
+      <c r="DE94" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="95" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA95" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB95" s="15">
+        <v>40170.129999999997</v>
+      </c>
+      <c r="DC95" s="17">
+        <v>1738786.39</v>
+      </c>
+      <c r="DD95" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE95" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="96" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA96" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="DB96" s="15">
+        <v>43383.74</v>
+      </c>
+      <c r="DC96" s="17">
+        <v>1782170.13</v>
+      </c>
+      <c r="DD96" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE96" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="97" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA97" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="DB97" s="15">
+        <v>40170.129999999997</v>
+      </c>
+      <c r="DC97" s="17">
+        <v>1822340.26</v>
+      </c>
+      <c r="DD97" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE97" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="98" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA98" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB98" s="15">
+        <v>43383.74</v>
+      </c>
+      <c r="DC98" s="17">
+        <v>1865724.01</v>
+      </c>
+      <c r="DD98" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE98" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="99" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA99" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB99" s="15">
+        <v>30529.3</v>
+      </c>
+      <c r="DC99" s="17">
+        <v>1896253.31</v>
+      </c>
+      <c r="DD99" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE99" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="100" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA100" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="DB100" s="15">
+        <v>30529.3</v>
+      </c>
+      <c r="DC100" s="17">
+        <v>1926782.61</v>
+      </c>
+      <c r="DD100" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE100" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="101" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA101" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="DB101" s="15">
+        <v>30529.3</v>
+      </c>
+      <c r="DC101" s="17">
+        <v>1957311.91</v>
+      </c>
+      <c r="DD101" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE101" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="102" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA102" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="DB102" s="15">
+        <v>30529.3</v>
+      </c>
+      <c r="DC102" s="17">
+        <v>1987841.21</v>
+      </c>
+      <c r="DD102" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE102" s="17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="103" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA103" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="DB103" s="15">
+        <v>27315.69</v>
+      </c>
+      <c r="DC103" s="17">
+        <v>2015156.9</v>
+      </c>
+      <c r="DD103" s="17">
+        <v>200000</v>
+      </c>
+      <c r="DE103" s="17">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="104" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA104" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="DB104" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC104" s="17">
+        <v>2039258.98</v>
+      </c>
+      <c r="DD104" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="DE104" s="17">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="105" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA105" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="DB105" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC105" s="17">
+        <v>2063361.06</v>
+      </c>
+      <c r="DD105" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="DE105" s="17">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="106" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA106" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="DB106" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC106" s="17">
+        <v>2087463.14</v>
+      </c>
+      <c r="DD106" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="DE106" s="17">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="107" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA107" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB107" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC107" s="17">
+        <v>2111565.2200000002</v>
+      </c>
+      <c r="DD107" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="DE107" s="17">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="108" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA108" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="DB108" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC108" s="17">
+        <v>2135667.2999999998</v>
+      </c>
+      <c r="DD108" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="DE108" s="17">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="109" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA109" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2">
-        <v>29411.759999999998</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2011764.71</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>2050000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="DB109" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DC109" s="17">
+        <v>2159769.38</v>
+      </c>
+      <c r="DD109" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="DE109" s="17">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="110" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA110" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2">
-        <v>20588.240000000002</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2032352.94</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="DB110" s="15">
+        <v>19281.66</v>
+      </c>
+      <c r="DC110" s="17">
+        <v>2179051.04</v>
+      </c>
+      <c r="DD110" s="17">
         <v>200000</v>
       </c>
-      <c r="F53" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="DE110" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="111" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA111" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="2">
-        <v>20588.240000000002</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2052941.18</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="DB111" s="15">
+        <v>14461.25</v>
+      </c>
+      <c r="DC111" s="17">
+        <v>2193512.29</v>
+      </c>
+      <c r="DD111" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE111" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="112" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA112" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="2">
-        <v>20588.240000000002</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2073529.41</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="DB112" s="15">
+        <v>14461.25</v>
+      </c>
+      <c r="DC112" s="17">
+        <v>2207973.5299999998</v>
+      </c>
+      <c r="DD112" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE112" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="113" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA113" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="2">
-        <v>20588.240000000002</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2094117.65</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="DB113" s="15">
+        <v>14461.25</v>
+      </c>
+      <c r="DC113" s="17">
+        <v>2222434.7799999998</v>
+      </c>
+      <c r="DD113" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE113" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="114" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA114" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D57" s="2">
-        <v>2105882.35</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="DB114" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC114" s="17">
+        <v>2232075.61</v>
+      </c>
+      <c r="DD114" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE114" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="115" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA115" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2117647.06</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="DB115" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC115" s="17">
+        <v>2241716.4500000002</v>
+      </c>
+      <c r="DD115" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE115" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="116" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA116" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2129411.7599999998</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="DB116" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC116" s="17">
+        <v>2251357.2799999998</v>
+      </c>
+      <c r="DD116" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE116" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="117" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA117" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2141176.4700000002</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="DB117" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC117" s="17">
+        <v>2260998.11</v>
+      </c>
+      <c r="DD117" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE117" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="118" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA118" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="2">
-        <v>5882.35</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2147058.8199999998</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="DB118" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DC118" s="17">
+        <v>2267425.33</v>
+      </c>
+      <c r="DD118" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE118" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="119" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA119" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2161764.71</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="DB119" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC119" s="17">
+        <v>2277066.16</v>
+      </c>
+      <c r="DD119" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE119" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="120" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA120" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2176470.59</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="DB120" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC120" s="17">
+        <v>2286706.9900000002</v>
+      </c>
+      <c r="DD120" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE120" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="121" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA121" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2191176.4700000002</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="DB121" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC121" s="17">
+        <v>2296347.83</v>
+      </c>
+      <c r="DD121" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE121" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="122" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA122" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2205882.35</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="DB122" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC122" s="17">
+        <v>2305988.66</v>
+      </c>
+      <c r="DD122" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE122" s="17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="123" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA123" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2220588.2400000002</v>
-      </c>
-      <c r="E66" s="2">
-        <v>300000</v>
-      </c>
-      <c r="F66" s="2">
+      <c r="DB123" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC123" s="17">
+        <v>2315629.4900000002</v>
+      </c>
+      <c r="DD123" s="17">
+        <v>200000</v>
+      </c>
+      <c r="DE123" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="124" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA124" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="DB124" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC124" s="17">
+        <v>2325270.3199999998</v>
+      </c>
+      <c r="DD124" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE124" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="125" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA125" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="DB125" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC125" s="17">
+        <v>2334911.15</v>
+      </c>
+      <c r="DD125" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE125" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="126" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA126" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="DB126" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC126" s="17">
+        <v>2344551.98</v>
+      </c>
+      <c r="DD126" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE126" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="127" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA127" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="DB127" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC127" s="17">
+        <v>2354192.8199999998</v>
+      </c>
+      <c r="DD127" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE127" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="128" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA128" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="DB128" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC128" s="17">
+        <v>2363833.65</v>
+      </c>
+      <c r="DD128" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE128" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="129" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA129" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="DB129" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DC129" s="17">
+        <v>2376688.09</v>
+      </c>
+      <c r="DD129" s="22">
+        <v>0</v>
+      </c>
+      <c r="DE129" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="130" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA130" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="DB130" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC130" s="17">
+        <v>2386328.92</v>
+      </c>
+      <c r="DD130" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE130" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="131" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA131" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="DB131" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC131" s="17">
+        <v>2395969.75</v>
+      </c>
+      <c r="DD131" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE131" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="132" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA132" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="DB132" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC132" s="17">
+        <v>2405610.59</v>
+      </c>
+      <c r="DD132" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE132" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="133" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA133" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="DB133" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC133" s="17">
+        <v>2415251.42</v>
+      </c>
+      <c r="DD133" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE133" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="134" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA134" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="DB134" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DC134" s="17">
+        <v>2424892.25</v>
+      </c>
+      <c r="DD134" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE134" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="135" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA135" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="DB135" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DC135" s="17">
+        <v>2431319.4700000002</v>
+      </c>
+      <c r="DD135" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE135" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="136" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA136" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB136" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DC136" s="17">
+        <v>2444173.91</v>
+      </c>
+      <c r="DD136" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE136" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="137" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA137" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB137" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DC137" s="17">
+        <v>2457028.36</v>
+      </c>
+      <c r="DD137" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE137" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="138" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA138" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="DB138" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DC138" s="17">
+        <v>2469882.7999999998</v>
+      </c>
+      <c r="DD138" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE138" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="139" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA139" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="DB139" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DC139" s="17">
+        <v>2482737.2400000002</v>
+      </c>
+      <c r="DD139" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE139" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="140" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA140" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB140" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DC140" s="17">
+        <v>2495591.6800000002</v>
+      </c>
+      <c r="DD140" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE140" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="141" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA141" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="DB141" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DC141" s="17">
+        <v>2508446.12</v>
+      </c>
+      <c r="DD141" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE141" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="142" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA142" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="DB142" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DC142" s="17">
+        <v>2521300.5699999998</v>
+      </c>
+      <c r="DD142" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE142" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="143" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA143" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="DB143" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DC143" s="17">
+        <v>2534155.0099999998</v>
+      </c>
+      <c r="DD143" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE143" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="144" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA144" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="DB144" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DC144" s="17">
+        <v>2547009.4500000002</v>
+      </c>
+      <c r="DD144" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE144" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="145" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA145" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="DB145" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DC145" s="17">
+        <v>2559863.89</v>
+      </c>
+      <c r="DD145" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE145" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="146" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA146" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB146" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DC146" s="17">
+        <v>2566291.12</v>
+      </c>
+      <c r="DD146" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE146" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="147" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA147" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="DB147" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DC147" s="17">
+        <v>2572718.34</v>
+      </c>
+      <c r="DD147" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE147" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="148" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA148" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB148" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DC148" s="17">
+        <v>2579145.56</v>
+      </c>
+      <c r="DD148" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE148" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="149" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA149" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="DB149" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DC149" s="17">
+        <v>2585572.7799999998</v>
+      </c>
+      <c r="DD149" s="16">
+        <v>0</v>
+      </c>
+      <c r="DE149" s="17">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="150" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM150" s="7">
+        <v>3213.61</v>
+      </c>
+      <c r="AN150" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AO150" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AR150" s="6">
+        <f>AO150-AM150</f>
+        <v>96786.39</v>
+      </c>
+      <c r="DA150" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="DB150" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DC150" s="17">
+        <v>2592000</v>
+      </c>
+      <c r="DD150" s="17">
+        <v>20000</v>
+      </c>
+      <c r="DE150" s="17">
+        <v>2620000</v>
+      </c>
+    </row>
+    <row r="151" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM151" s="9">
+        <v>11247.64</v>
+      </c>
+      <c r="AN151" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO151" s="11">
+        <v>100000</v>
+      </c>
+      <c r="AR151" s="6">
+        <f t="shared" ref="AR151:AR211" si="1">AO151-AM151</f>
+        <v>88752.36</v>
+      </c>
+    </row>
+    <row r="152" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM152" s="9">
+        <v>16068.05</v>
+      </c>
+      <c r="AN152" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO152" s="11">
+        <v>100000</v>
+      </c>
+      <c r="AR152" s="6">
+        <f t="shared" si="1"/>
+        <v>83931.95</v>
+      </c>
+    </row>
+    <row r="153" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM153" s="9">
+        <v>20888.47</v>
+      </c>
+      <c r="AN153" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO153" s="11">
+        <v>100000</v>
+      </c>
+      <c r="AR153" s="6">
+        <f t="shared" si="1"/>
+        <v>79111.53</v>
+      </c>
+    </row>
+    <row r="154" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM154" s="12">
+        <v>25708.880000000001</v>
+      </c>
+      <c r="AN154" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO154" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AR154" s="6">
+        <f t="shared" si="1"/>
+        <v>74291.12</v>
+      </c>
+    </row>
+    <row r="155" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM155" s="15">
+        <v>38563.33</v>
+      </c>
+      <c r="AN155" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO155" s="17">
+        <v>100000</v>
+      </c>
+      <c r="AR155" s="6">
+        <f t="shared" si="1"/>
+        <v>61436.67</v>
+      </c>
+    </row>
+    <row r="156" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM156" s="15">
+        <v>51417.77</v>
+      </c>
+      <c r="AN156" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO156" s="17">
+        <v>100000</v>
+      </c>
+      <c r="AR156" s="6">
+        <f t="shared" si="1"/>
+        <v>48582.23</v>
+      </c>
+    </row>
+    <row r="157" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM157" s="15">
+        <v>67485.820000000007</v>
+      </c>
+      <c r="AN157" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO157" s="17">
+        <v>100000</v>
+      </c>
+      <c r="AR157" s="6">
+        <f t="shared" si="1"/>
+        <v>32514.179999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM158" s="15">
+        <v>83553.88</v>
+      </c>
+      <c r="AN158" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO158" s="17">
+        <v>100000</v>
+      </c>
+      <c r="AR158" s="6">
+        <f t="shared" si="1"/>
+        <v>16446.119999999995</v>
+      </c>
+    </row>
+    <row r="159" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM159" s="15">
+        <v>99621.93</v>
+      </c>
+      <c r="AN159" s="17">
+        <v>500000</v>
+      </c>
+      <c r="AO159" s="17">
+        <v>500000</v>
+      </c>
+      <c r="AR159" s="6">
+        <f t="shared" si="1"/>
+        <v>400378.07</v>
+      </c>
+    </row>
+    <row r="160" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM160" s="15">
+        <v>110869.57</v>
+      </c>
+      <c r="AN160" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO160" s="17">
+        <v>500000</v>
+      </c>
+      <c r="AR160" s="6">
+        <f t="shared" si="1"/>
+        <v>389130.43</v>
+      </c>
+    </row>
+    <row r="161" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM161" s="15">
+        <v>141398.87</v>
+      </c>
+      <c r="AN161" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO161" s="17">
+        <v>500000</v>
+      </c>
+      <c r="AR161" s="6">
+        <f t="shared" si="1"/>
+        <v>358601.13</v>
+      </c>
+    </row>
+    <row r="162" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM162" s="18">
+        <v>141398.87</v>
+      </c>
+      <c r="AN162" s="19">
+        <v>600000</v>
+      </c>
+      <c r="AO162" s="19">
+        <v>600000</v>
+      </c>
+      <c r="AR162" s="6">
+        <f t="shared" si="1"/>
+        <v>458601.13</v>
+      </c>
+    </row>
+    <row r="163" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM163" s="9">
+        <v>171928.17</v>
+      </c>
+      <c r="AN163" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO163" s="11">
+        <v>600000</v>
+      </c>
+      <c r="AR163" s="6">
+        <f t="shared" si="1"/>
+        <v>428071.82999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM164" s="9">
+        <v>271550.09000000003</v>
+      </c>
+      <c r="AN164" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO164" s="11">
+        <v>600000</v>
+      </c>
+      <c r="AR164" s="6">
+        <f t="shared" si="1"/>
+        <v>328449.90999999997</v>
+      </c>
+      <c r="DA164" s="7">
+        <v>3213.61</v>
+      </c>
+      <c r="DB164" s="8">
+        <v>3213.61</v>
+      </c>
+    </row>
+    <row r="165" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM165" s="9">
+        <v>371172.02</v>
+      </c>
+      <c r="AN165" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO165" s="11">
+        <v>600000</v>
+      </c>
+      <c r="AR165" s="6">
+        <f t="shared" si="1"/>
+        <v>228827.97999999998</v>
+      </c>
+      <c r="DA165" s="9">
+        <v>8034.03</v>
+      </c>
+      <c r="DB165" s="11">
+        <v>11247.64</v>
+      </c>
+    </row>
+    <row r="166" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM166" s="12">
+        <v>408128.54</v>
+      </c>
+      <c r="AN166" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO166" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AR166" s="6">
+        <f t="shared" si="1"/>
+        <v>191871.46000000002</v>
+      </c>
+      <c r="DA166" s="9">
+        <v>4820.42</v>
+      </c>
+      <c r="DB166" s="11">
+        <v>16068.05</v>
+      </c>
+    </row>
+    <row r="167" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM167" s="15">
+        <v>432230.62</v>
+      </c>
+      <c r="AN167" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO167" s="17">
+        <v>600000</v>
+      </c>
+      <c r="AR167" s="6">
+        <f t="shared" si="1"/>
+        <v>167769.38</v>
+      </c>
+      <c r="DA167" s="9">
+        <v>4820.42</v>
+      </c>
+      <c r="DB167" s="11">
+        <v>20888.47</v>
+      </c>
+    </row>
+    <row r="168" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM168" s="15">
+        <v>456332.7</v>
+      </c>
+      <c r="AN168" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO168" s="17">
+        <v>600000</v>
+      </c>
+      <c r="AR168" s="6">
+        <f t="shared" si="1"/>
+        <v>143667.29999999999</v>
+      </c>
+      <c r="DA168" s="9">
+        <v>4820.42</v>
+      </c>
+      <c r="DB168" s="11">
+        <v>25708.880000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM169" s="15">
+        <v>480434.78</v>
+      </c>
+      <c r="AN169" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO169" s="17">
+        <v>600000</v>
+      </c>
+      <c r="AR169" s="6">
+        <f t="shared" si="1"/>
+        <v>119565.21999999997</v>
+      </c>
+      <c r="DA169" s="9">
+        <v>12854.44</v>
+      </c>
+      <c r="DB169" s="11">
+        <v>38563.33</v>
+      </c>
+    </row>
+    <row r="170" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM170" s="15">
+        <v>504536.86</v>
+      </c>
+      <c r="AN170" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="AO170" s="17">
+        <v>1800000</v>
+      </c>
+      <c r="AR170" s="6">
+        <f t="shared" si="1"/>
+        <v>1295463.1400000001</v>
+      </c>
+      <c r="DA170" s="9">
+        <v>12854.44</v>
+      </c>
+      <c r="DB170" s="11">
+        <v>51417.77</v>
+      </c>
+    </row>
+    <row r="171" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM171" s="15">
+        <v>528638.93999999994</v>
+      </c>
+      <c r="AN171" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO171" s="17">
+        <v>1800000</v>
+      </c>
+      <c r="AR171" s="6">
+        <f t="shared" si="1"/>
+        <v>1271361.06</v>
+      </c>
+      <c r="DA171" s="9">
+        <v>16068.05</v>
+      </c>
+      <c r="DB171" s="11">
+        <v>67485.820000000007</v>
+      </c>
+    </row>
+    <row r="172" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM172" s="15">
+        <v>586483.93000000005</v>
+      </c>
+      <c r="AN172" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO172" s="17">
+        <v>1800000</v>
+      </c>
+      <c r="AR172" s="6">
+        <f t="shared" si="1"/>
+        <v>1213516.0699999998</v>
+      </c>
+      <c r="DA172" s="9">
+        <v>16068.05</v>
+      </c>
+      <c r="DB172" s="11">
+        <v>83553.88</v>
+      </c>
+    </row>
+    <row r="173" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM173" s="9">
+        <v>660396.98</v>
+      </c>
+      <c r="AN173" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO173" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR173" s="6">
+        <f t="shared" si="1"/>
+        <v>1139603.02</v>
+      </c>
+      <c r="DA173" s="9">
+        <v>16068.05</v>
+      </c>
+      <c r="DB173" s="11">
+        <v>99621.93</v>
+      </c>
+    </row>
+    <row r="174" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM174" s="9">
+        <v>742344.05</v>
+      </c>
+      <c r="AN174" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO174" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR174" s="6">
+        <f t="shared" si="1"/>
+        <v>1057655.95</v>
+      </c>
+      <c r="DA174" s="9">
+        <v>11247.64</v>
+      </c>
+      <c r="DB174" s="11">
+        <v>110869.57</v>
+      </c>
+    </row>
+    <row r="175" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM175" s="18">
+        <v>742344.05</v>
+      </c>
+      <c r="AN175" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="AO175" s="19">
+        <v>1800000</v>
+      </c>
+      <c r="AR175" s="6">
+        <f t="shared" si="1"/>
+        <v>1057655.95</v>
+      </c>
+      <c r="DA175" s="9">
+        <v>30529.3</v>
+      </c>
+      <c r="DB175" s="11">
+        <v>141398.87</v>
+      </c>
+    </row>
+    <row r="176" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM176" s="9">
+        <v>917485.82</v>
+      </c>
+      <c r="AN176" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO176" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR176" s="6">
+        <f t="shared" si="1"/>
+        <v>882514.18</v>
+      </c>
+      <c r="DA176" s="9">
+        <v>30529.3</v>
+      </c>
+      <c r="DB176" s="11">
+        <v>171928.17</v>
+      </c>
+    </row>
+    <row r="177" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM177" s="9">
+        <v>1062098.3</v>
+      </c>
+      <c r="AN177" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO177" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR177" s="6">
+        <f t="shared" si="1"/>
+        <v>737901.7</v>
+      </c>
+      <c r="DA177" s="9">
+        <v>103621.93</v>
+      </c>
+      <c r="DB177" s="11">
+        <v>275550.09000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM178" s="9">
+        <v>1174574.67</v>
+      </c>
+      <c r="AN178" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO178" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR178" s="6">
+        <f t="shared" si="1"/>
+        <v>625425.33000000007</v>
+      </c>
+      <c r="DA178" s="9">
+        <v>103621.93</v>
+      </c>
+      <c r="DB178" s="11">
+        <v>379172.02</v>
+      </c>
+    </row>
+    <row r="179" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM179" s="9">
+        <v>1277410.21</v>
+      </c>
+      <c r="AN179" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO179" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR179" s="6">
+        <f t="shared" si="1"/>
+        <v>522589.79000000004</v>
+      </c>
+      <c r="DA179" s="9">
+        <v>36956.519999999997</v>
+      </c>
+      <c r="DB179" s="11">
+        <v>416128.54</v>
+      </c>
+    </row>
+    <row r="180" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM180" s="9">
+        <v>1360964.08</v>
+      </c>
+      <c r="AN180" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO180" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR180" s="6">
+        <f t="shared" si="1"/>
+        <v>439035.91999999993</v>
+      </c>
+      <c r="DA180" s="9">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB180" s="11">
+        <v>440230.62</v>
+      </c>
+    </row>
+    <row r="181" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM181" s="9">
+        <v>1404347.83</v>
+      </c>
+      <c r="AN181" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO181" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR181" s="6">
+        <f t="shared" si="1"/>
+        <v>395652.16999999993</v>
+      </c>
+      <c r="DA181" s="12">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB181" s="14">
+        <v>464332.7</v>
+      </c>
+    </row>
+    <row r="182" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM182" s="9">
+        <v>1467013.23</v>
+      </c>
+      <c r="AN182" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO182" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR182" s="6">
+        <f t="shared" si="1"/>
+        <v>332986.77</v>
+      </c>
+      <c r="DA182" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB182" s="17">
+        <v>488434.78</v>
+      </c>
+    </row>
+    <row r="183" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM183" s="9">
+        <v>1524858.22</v>
+      </c>
+      <c r="AN183" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO183" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="AR183" s="6">
+        <f t="shared" si="1"/>
+        <v>275141.78000000003</v>
+      </c>
+      <c r="DA183" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB183" s="17">
+        <v>512536.86</v>
+      </c>
+    </row>
+    <row r="184" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM184" s="12">
+        <v>1571455.58</v>
+      </c>
+      <c r="AN184" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO184" s="14">
+        <v>1800000</v>
+      </c>
+      <c r="AR184" s="6">
+        <f t="shared" si="1"/>
+        <v>228544.41999999993</v>
+      </c>
+      <c r="DA184" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB184" s="17">
+        <v>536638.93999999994</v>
+      </c>
+    </row>
+    <row r="185" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM185" s="15">
+        <v>1618052.93</v>
+      </c>
+      <c r="AN185" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO185" s="17">
+        <v>1800000</v>
+      </c>
+      <c r="AR185" s="6">
+        <f t="shared" si="1"/>
+        <v>181947.07000000007</v>
+      </c>
+      <c r="DA185" s="15">
+        <v>60233.88</v>
+      </c>
+      <c r="DB185" s="17">
+        <v>596872.81999999995</v>
+      </c>
+    </row>
+    <row r="186" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM186" s="15">
+        <v>1656616.26</v>
+      </c>
+      <c r="AN186" s="17">
+        <v>200000</v>
+      </c>
+      <c r="AO186" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="AR186" s="6">
+        <f t="shared" si="1"/>
+        <v>343383.74</v>
+      </c>
+      <c r="DA186" s="15">
+        <v>76301.929999999993</v>
+      </c>
+      <c r="DB186" s="17">
+        <v>673174.75</v>
+      </c>
+    </row>
+    <row r="187" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM187" s="20">
+        <v>1656616.26</v>
+      </c>
+      <c r="AN187" s="21">
+        <v>200000</v>
+      </c>
+      <c r="AO187" s="21">
+        <v>2000000</v>
+      </c>
+      <c r="AR187" s="6">
+        <f t="shared" si="1"/>
+        <v>343383.74</v>
+      </c>
+      <c r="DA187" s="15">
+        <v>84335.96</v>
+      </c>
+      <c r="DB187" s="17">
+        <v>757510.71</v>
+      </c>
+    </row>
+    <row r="188" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM188" s="15">
+        <v>1740170.13</v>
+      </c>
+      <c r="AN188" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO188" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="AR188" s="6">
+        <f t="shared" si="1"/>
+        <v>259829.87000000011</v>
+      </c>
+      <c r="DA188" s="15">
+        <v>77908.740000000005</v>
+      </c>
+      <c r="DB188" s="17">
+        <v>835419.45</v>
+      </c>
+    </row>
+    <row r="189" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM189" s="15">
+        <v>1780340.26</v>
+      </c>
+      <c r="AN189" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO189" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="AR189" s="6">
+        <f t="shared" si="1"/>
+        <v>219659.74</v>
+      </c>
+      <c r="DA189" s="15">
+        <v>102010.82</v>
+      </c>
+      <c r="DB189" s="17">
+        <v>937430.27</v>
+      </c>
+    </row>
+    <row r="190" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM190" s="15">
+        <v>1823724.01</v>
+      </c>
+      <c r="AN190" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO190" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="AR190" s="6">
+        <f t="shared" si="1"/>
+        <v>176275.99</v>
+      </c>
+      <c r="DA190" s="15">
+        <v>148834.70000000001</v>
+      </c>
+      <c r="DB190" s="17">
+        <v>1086264.97</v>
+      </c>
+    </row>
+    <row r="191" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM191" s="15">
+        <v>1854253.31</v>
+      </c>
+      <c r="AN191" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO191" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="AR191" s="6">
+        <f t="shared" si="1"/>
+        <v>145746.68999999994</v>
+      </c>
+      <c r="DA191" s="15">
+        <v>116948.59</v>
+      </c>
+      <c r="DB191" s="17">
+        <v>1203213.56</v>
+      </c>
+    </row>
+    <row r="192" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM192" s="15">
+        <v>1884782.61</v>
+      </c>
+      <c r="AN192" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO192" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="AR192" s="6">
+        <f t="shared" si="1"/>
+        <v>115217.3899999999</v>
+      </c>
+      <c r="DA192" s="15">
+        <v>107307.76</v>
+      </c>
+      <c r="DB192" s="17">
+        <v>1310521.32</v>
+      </c>
+    </row>
+    <row r="193" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM193" s="15">
+        <v>1915311.91</v>
+      </c>
+      <c r="AN193" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO193" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="AR193" s="6">
+        <f t="shared" si="1"/>
+        <v>84688.090000000084</v>
+      </c>
+      <c r="DA193" s="15">
+        <v>86192.76</v>
+      </c>
+      <c r="DB193" s="17">
+        <v>1396714.08</v>
+      </c>
+    </row>
+    <row r="194" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM194" s="15">
+        <v>1945841.21</v>
+      </c>
+      <c r="AN194" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO194" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="AR194" s="6">
+        <f t="shared" si="1"/>
+        <v>54158.790000000037</v>
+      </c>
+      <c r="DA194" s="15">
+        <v>43633.74</v>
+      </c>
+      <c r="DB194" s="17">
+        <v>1440347.83</v>
+      </c>
+    </row>
+    <row r="195" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM195" s="15">
+        <v>1973156.9</v>
+      </c>
+      <c r="AN195" s="17">
+        <v>200000</v>
+      </c>
+      <c r="AO195" s="17">
+        <v>2200000</v>
+      </c>
+      <c r="AR195" s="6">
+        <f t="shared" si="1"/>
+        <v>226843.10000000009</v>
+      </c>
+      <c r="DA195" s="15">
+        <v>62915.41</v>
+      </c>
+      <c r="DB195" s="17">
+        <v>1503263.23</v>
+      </c>
+    </row>
+    <row r="196" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM196" s="15">
+        <v>1997258.98</v>
+      </c>
+      <c r="AN196" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO196" s="17">
+        <v>2200000</v>
+      </c>
+      <c r="AR196" s="6">
+        <f t="shared" si="1"/>
+        <v>202741.02000000002</v>
+      </c>
+      <c r="DA196" s="15">
+        <v>58094.99</v>
+      </c>
+      <c r="DB196" s="17">
+        <v>1561358.22</v>
+      </c>
+    </row>
+    <row r="197" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM197" s="15">
+        <v>2021361.06</v>
+      </c>
+      <c r="AN197" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO197" s="17">
+        <v>2200000</v>
+      </c>
+      <c r="AR197" s="6">
+        <f t="shared" si="1"/>
+        <v>178638.93999999994</v>
+      </c>
+      <c r="DA197" s="15">
+        <v>48430.69</v>
+      </c>
+      <c r="DB197" s="17">
+        <v>1609788.91</v>
+      </c>
+    </row>
+    <row r="198" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM198" s="15">
+        <v>2045463.14</v>
+      </c>
+      <c r="AN198" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO198" s="17">
+        <v>2200000</v>
+      </c>
+      <c r="AR198" s="6">
+        <f t="shared" si="1"/>
+        <v>154536.8600000001</v>
+      </c>
+      <c r="DA198" s="15">
+        <v>48430.69</v>
+      </c>
+      <c r="DB198" s="17">
+        <v>1658219.6</v>
+      </c>
+    </row>
+    <row r="199" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM199" s="20">
+        <v>2045463.14</v>
+      </c>
+      <c r="AN199" s="21">
+        <v>200000</v>
+      </c>
+      <c r="AO199" s="21">
+        <v>2200000</v>
+      </c>
+      <c r="AR199" s="6">
+        <f t="shared" si="1"/>
+        <v>154536.8600000001</v>
+      </c>
+      <c r="DA199" s="15">
+        <v>40396.660000000003</v>
+      </c>
+      <c r="DB199" s="17">
+        <v>1698616.26</v>
+      </c>
+    </row>
+    <row r="200" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM200" s="15">
+        <v>2093667.3</v>
+      </c>
+      <c r="AN200" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO200" s="17">
+        <v>2200000</v>
+      </c>
+      <c r="AR200" s="6">
+        <f t="shared" si="1"/>
+        <v>106332.69999999995</v>
+      </c>
+      <c r="DA200" s="15">
+        <v>40170.129999999997</v>
+      </c>
+      <c r="DB200" s="17">
+        <v>1738786.39</v>
+      </c>
+    </row>
+    <row r="201" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM201" s="15">
+        <v>2117769.38</v>
+      </c>
+      <c r="AN201" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO201" s="17">
+        <v>2200000</v>
+      </c>
+      <c r="AR201" s="6">
+        <f t="shared" si="1"/>
+        <v>82230.620000000112</v>
+      </c>
+      <c r="DA201" s="15">
+        <v>43383.74</v>
+      </c>
+      <c r="DB201" s="17">
+        <v>1782170.13</v>
+      </c>
+    </row>
+    <row r="202" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM202" s="15">
+        <v>2137051.04</v>
+      </c>
+      <c r="AN202" s="17">
+        <v>200000</v>
+      </c>
+      <c r="AO202" s="17">
+        <v>2400000</v>
+      </c>
+      <c r="AR202" s="6">
+        <f t="shared" si="1"/>
+        <v>262948.95999999996</v>
+      </c>
+      <c r="DA202" s="15">
+        <v>40170.129999999997</v>
+      </c>
+      <c r="DB202" s="17">
+        <v>1822340.26</v>
+      </c>
+    </row>
+    <row r="203" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM203" s="15">
+        <v>2151512.29</v>
+      </c>
+      <c r="AN203" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO203" s="17">
+        <v>2400000</v>
+      </c>
+      <c r="AR203" s="6">
+        <f t="shared" si="1"/>
+        <v>248487.70999999996</v>
+      </c>
+      <c r="DA203" s="15">
+        <v>43383.74</v>
+      </c>
+      <c r="DB203" s="17">
+        <v>1865724.01</v>
+      </c>
+    </row>
+    <row r="204" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM204" s="15">
+        <v>2165973.5299999998</v>
+      </c>
+      <c r="AN204" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO204" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR204" s="6">
+        <f>AO204-AM204</f>
+        <v>234026.4700000002</v>
+      </c>
+      <c r="DA204" s="15">
+        <v>30529.3</v>
+      </c>
+      <c r="DB204" s="17">
+        <v>1896253.31</v>
+      </c>
+    </row>
+    <row r="205" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM205" s="15">
+        <v>2180434.7799999998</v>
+      </c>
+      <c r="AN205" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO205" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR205" s="6">
+        <f t="shared" si="1"/>
+        <v>219565.2200000002</v>
+      </c>
+      <c r="DA205" s="15">
+        <v>30529.3</v>
+      </c>
+      <c r="DB205" s="17">
+        <v>1926782.61</v>
+      </c>
+    </row>
+    <row r="206" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM206" s="15">
+        <v>2190075.61</v>
+      </c>
+      <c r="AN206" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO206" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR206" s="6">
+        <f t="shared" si="1"/>
+        <v>209924.39000000013</v>
+      </c>
+      <c r="DA206" s="15">
+        <v>30529.3</v>
+      </c>
+      <c r="DB206" s="17">
+        <v>1957311.91</v>
+      </c>
+    </row>
+    <row r="207" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM207" s="15">
+        <v>2199716.4500000002</v>
+      </c>
+      <c r="AN207" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO207" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR207" s="6">
+        <f t="shared" si="1"/>
+        <v>200283.54999999981</v>
+      </c>
+      <c r="DA207" s="15">
+        <v>30529.3</v>
+      </c>
+      <c r="DB207" s="17">
+        <v>1987841.21</v>
+      </c>
+    </row>
+    <row r="208" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM208" s="15">
+        <v>2209357.2799999998</v>
+      </c>
+      <c r="AN208" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO208" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR208" s="6">
+        <f t="shared" si="1"/>
+        <v>190642.7200000002</v>
+      </c>
+      <c r="DA208" s="15">
+        <v>27315.69</v>
+      </c>
+      <c r="DB208" s="17">
+        <v>2015156.9</v>
+      </c>
+    </row>
+    <row r="209" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM209" s="15">
+        <v>2218998.11</v>
+      </c>
+      <c r="AN209" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO209" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR209" s="6">
+        <f t="shared" si="1"/>
+        <v>181001.89000000013</v>
+      </c>
+      <c r="DA209" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB209" s="17">
+        <v>2039258.98</v>
+      </c>
+    </row>
+    <row r="210" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM210" s="15">
+        <v>2225425.33</v>
+      </c>
+      <c r="AN210" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO210" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR210" s="6">
+        <f t="shared" si="1"/>
+        <v>174574.66999999993</v>
+      </c>
+      <c r="DA210" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB210" s="17">
+        <v>2063361.06</v>
+      </c>
+    </row>
+    <row r="211" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM211" s="20">
+        <v>2225425.33</v>
+      </c>
+      <c r="AN211" s="21">
+        <v>200000</v>
+      </c>
+      <c r="AO211" s="21">
+        <v>2400000</v>
+      </c>
+      <c r="AR211" s="6">
+        <f t="shared" si="1"/>
+        <v>174574.66999999993</v>
+      </c>
+      <c r="DA211" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB211" s="17">
+        <v>2087463.14</v>
+      </c>
+    </row>
+    <row r="212" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM212" s="15">
+        <v>2244706.9900000002</v>
+      </c>
+      <c r="AN212" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO212" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR212" s="6">
+        <f t="shared" ref="AR212:AR244" si="2">AO212-AM212</f>
+        <v>155293.00999999978</v>
+      </c>
+      <c r="DA212" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB212" s="17">
+        <v>2111565.2200000002</v>
+      </c>
+    </row>
+    <row r="213" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM213" s="15">
+        <v>2254347.83</v>
+      </c>
+      <c r="AN213" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO213" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR213" s="6">
+        <f t="shared" si="2"/>
+        <v>145652.16999999993</v>
+      </c>
+      <c r="DA213" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB213" s="17">
+        <v>2135667.2999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM214" s="15">
+        <v>2263988.66</v>
+      </c>
+      <c r="AN214" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO214" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="AR214" s="6">
+        <f t="shared" si="2"/>
+        <v>136011.33999999985</v>
+      </c>
+      <c r="DA214" s="15">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DB214" s="17">
+        <v>2159769.38</v>
+      </c>
+    </row>
+    <row r="215" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM215" s="15">
+        <v>2273629.4900000002</v>
+      </c>
+      <c r="AN215" s="17">
+        <v>150000</v>
+      </c>
+      <c r="AO215" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2232352.94</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
+      <c r="AR215" s="6">
+        <f t="shared" si="2"/>
+        <v>276370.50999999978</v>
+      </c>
+      <c r="DA215" s="15">
+        <v>19281.66</v>
+      </c>
+      <c r="DB215" s="17">
+        <v>2179051.04</v>
+      </c>
+    </row>
+    <row r="216" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM216" s="15">
+        <v>2283270.3199999998</v>
+      </c>
+      <c r="AN216" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO216" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2244117.65</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="AR216" s="6">
+        <f t="shared" si="2"/>
+        <v>266729.68000000017</v>
+      </c>
+      <c r="DA216" s="15">
+        <v>14461.25</v>
+      </c>
+      <c r="DB216" s="17">
+        <v>2193512.29</v>
+      </c>
+    </row>
+    <row r="217" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM217" s="15">
+        <v>2292911.15</v>
+      </c>
+      <c r="AN217" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO217" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2255882.35</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="AR217" s="6">
+        <f t="shared" si="2"/>
+        <v>257088.85000000009</v>
+      </c>
+      <c r="DA217" s="15">
+        <v>14461.25</v>
+      </c>
+      <c r="DB217" s="17">
+        <v>2207973.5299999998</v>
+      </c>
+    </row>
+    <row r="218" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM218" s="15">
+        <v>2302551.98</v>
+      </c>
+      <c r="AN218" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO218" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2267647.06</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="AR218" s="6">
+        <f t="shared" si="2"/>
+        <v>247448.02000000002</v>
+      </c>
+      <c r="DA218" s="15">
+        <v>14461.25</v>
+      </c>
+      <c r="DB218" s="17">
+        <v>2222434.7799999998</v>
+      </c>
+    </row>
+    <row r="219" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM219" s="15">
+        <v>2312192.8199999998</v>
+      </c>
+      <c r="AN219" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO219" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D71" s="2">
-        <v>2279411.7599999998</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="AR219" s="6">
+        <f t="shared" si="2"/>
+        <v>237807.18000000017</v>
+      </c>
+      <c r="DA219" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB219" s="17">
+        <v>2232075.61</v>
+      </c>
+    </row>
+    <row r="220" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM220" s="15">
+        <v>2321833.65</v>
+      </c>
+      <c r="AN220" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO220" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="5">
-        <v>14705.88</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2294117.65</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="AR220" s="6">
+        <f t="shared" si="2"/>
+        <v>228166.35000000009</v>
+      </c>
+      <c r="DA220" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB220" s="17">
+        <v>2241716.4500000002</v>
+      </c>
+    </row>
+    <row r="221" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM221" s="15">
+        <v>2334688.09</v>
+      </c>
+      <c r="AN221" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO221" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D73" s="2">
-        <v>2305882.35</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="AR221" s="6">
+        <f t="shared" si="2"/>
+        <v>215311.91000000015</v>
+      </c>
+      <c r="DA221" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB221" s="17">
+        <v>2251357.2799999998</v>
+      </c>
+    </row>
+    <row r="222" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM222" s="15">
+        <v>2344328.92</v>
+      </c>
+      <c r="AN222" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO222" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2317647.06</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="2">
+      <c r="AR222" s="6">
+        <f t="shared" si="2"/>
+        <v>205671.08000000007</v>
+      </c>
+      <c r="DA222" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB222" s="17">
+        <v>2260998.11</v>
+      </c>
+    </row>
+    <row r="223" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM223" s="20">
+        <v>2344328.92</v>
+      </c>
+      <c r="AN223" s="21">
+        <v>150000</v>
+      </c>
+      <c r="AO223" s="21">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D75" s="2">
-        <v>2329411.7599999998</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2">
+      <c r="AR223" s="6">
+        <f t="shared" si="2"/>
+        <v>205671.08000000007</v>
+      </c>
+      <c r="DA223" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DB223" s="17">
+        <v>2267425.33</v>
+      </c>
+    </row>
+    <row r="224" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM224" s="15">
+        <v>2363610.59</v>
+      </c>
+      <c r="AN224" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO224" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D76" s="2">
-        <v>2341176.4700000002</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="AR224" s="6">
+        <f t="shared" si="2"/>
+        <v>186389.41000000015</v>
+      </c>
+      <c r="DA224" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB224" s="17">
+        <v>2277066.16</v>
+      </c>
+    </row>
+    <row r="225" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM225" s="15">
+        <v>2373251.42</v>
+      </c>
+      <c r="AN225" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO225" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D77" s="2">
-        <v>2352941.1800000002</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="2">
+      <c r="AR225" s="6">
+        <f t="shared" si="2"/>
+        <v>176748.58000000007</v>
+      </c>
+      <c r="DA225" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB225" s="17">
+        <v>2286706.9900000002</v>
+      </c>
+    </row>
+    <row r="226" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM226" s="15">
+        <v>2382892.25</v>
+      </c>
+      <c r="AN226" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO226" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="2">
-        <v>5882.35</v>
-      </c>
-      <c r="D78" s="2">
-        <v>2358823.5299999998</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="2">
+      <c r="AR226" s="6">
+        <f t="shared" si="2"/>
+        <v>167107.75</v>
+      </c>
+      <c r="DA226" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB226" s="17">
+        <v>2296347.83</v>
+      </c>
+    </row>
+    <row r="227" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM227" s="15">
+        <v>2389319.4700000002</v>
+      </c>
+      <c r="AN227" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO227" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D79" s="2">
-        <v>2370588.2400000002</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="2">
+      <c r="AR227" s="6">
+        <f t="shared" si="2"/>
+        <v>160680.5299999998</v>
+      </c>
+      <c r="DA227" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB227" s="17">
+        <v>2305988.66</v>
+      </c>
+    </row>
+    <row r="228" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM228" s="15">
+        <v>2402173.91</v>
+      </c>
+      <c r="AN228" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO228" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D80" s="2">
-        <v>2382352.94</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2">
+      <c r="AR228" s="6">
+        <f t="shared" si="2"/>
+        <v>147826.08999999985</v>
+      </c>
+      <c r="DA228" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB228" s="17">
+        <v>2315629.4900000002</v>
+      </c>
+    </row>
+    <row r="229" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM229" s="15">
+        <v>2415028.36</v>
+      </c>
+      <c r="AN229" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO229" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D81" s="2">
-        <v>2394117.65</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="2">
+      <c r="AR229" s="6">
+        <f t="shared" si="2"/>
+        <v>134971.64000000013</v>
+      </c>
+      <c r="DA229" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB229" s="17">
+        <v>2325270.3199999998</v>
+      </c>
+    </row>
+    <row r="230" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM230" s="15">
+        <v>2427882.7999999998</v>
+      </c>
+      <c r="AN230" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO230" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2405882.35</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2">
+      <c r="AR230" s="6">
+        <f t="shared" si="2"/>
+        <v>122117.20000000019</v>
+      </c>
+      <c r="DA230" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB230" s="17">
+        <v>2334911.15</v>
+      </c>
+    </row>
+    <row r="231" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM231" s="15">
+        <v>2440737.2400000002</v>
+      </c>
+      <c r="AN231" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO231" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2417647.06</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="2">
+      <c r="AR231" s="6">
+        <f t="shared" si="2"/>
+        <v>109262.75999999978</v>
+      </c>
+      <c r="DA231" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB231" s="17">
+        <v>2344551.98</v>
+      </c>
+    </row>
+    <row r="232" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM232" s="15">
+        <v>2453591.6800000002</v>
+      </c>
+      <c r="AN232" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO232" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D84" s="2">
-        <v>2429411.7599999998</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="2">
+      <c r="AR232" s="6">
+        <f t="shared" si="2"/>
+        <v>96408.319999999832</v>
+      </c>
+      <c r="DA232" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB232" s="17">
+        <v>2354192.8199999998</v>
+      </c>
+    </row>
+    <row r="233" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM233" s="15">
+        <v>2466446.12</v>
+      </c>
+      <c r="AN233" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO233" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2441176.4700000002</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="2">
+      <c r="AR233" s="6">
+        <f t="shared" si="2"/>
+        <v>83553.879999999888</v>
+      </c>
+      <c r="DA233" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB233" s="17">
+        <v>2363833.65</v>
+      </c>
+    </row>
+    <row r="234" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM234" s="15">
+        <v>2479300.5699999998</v>
+      </c>
+      <c r="AN234" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO234" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2452941.1800000002</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2">
+      <c r="AR234" s="6">
+        <f t="shared" si="2"/>
+        <v>70699.430000000168</v>
+      </c>
+      <c r="DA234" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DB234" s="17">
+        <v>2376688.09</v>
+      </c>
+    </row>
+    <row r="235" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM235" s="20">
+        <v>2479300.5699999998</v>
+      </c>
+      <c r="AN235" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO235" s="21">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D87" s="2">
-        <v>2464705.88</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="2">
+      <c r="AR235" s="6">
+        <f t="shared" si="2"/>
+        <v>70699.430000000168</v>
+      </c>
+      <c r="DA235" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB235" s="17">
+        <v>2386328.92</v>
+      </c>
+    </row>
+    <row r="236" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM236" s="15">
+        <v>2505009.4500000002</v>
+      </c>
+      <c r="AN236" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO236" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="2">
-        <v>11764.71</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2476470.59</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="2">
+      <c r="AR236" s="6">
+        <f t="shared" si="2"/>
+        <v>44990.549999999814</v>
+      </c>
+      <c r="DA236" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB236" s="17">
+        <v>2395969.75</v>
+      </c>
+    </row>
+    <row r="237" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM237" s="15">
+        <v>2517863.89</v>
+      </c>
+      <c r="AN237" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO237" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D89" s="2">
-        <v>2491176.4700000002</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="2">
+      <c r="AR237" s="6">
+        <f t="shared" si="2"/>
+        <v>32136.10999999987</v>
+      </c>
+      <c r="DA237" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB237" s="17">
+        <v>2405610.59</v>
+      </c>
+    </row>
+    <row r="238" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM238" s="15">
+        <v>2524291.12</v>
+      </c>
+      <c r="AN238" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO238" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D90" s="2">
-        <v>2505882.35</v>
-      </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2">
+      <c r="AR238" s="6">
+        <f t="shared" si="2"/>
+        <v>25708.879999999888</v>
+      </c>
+      <c r="DA238" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB238" s="17">
+        <v>2415251.42</v>
+      </c>
+    </row>
+    <row r="239" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM239" s="15">
+        <v>2530718.34</v>
+      </c>
+      <c r="AN239" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO239" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D91" s="2">
-        <v>2520588.2400000002</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="2">
+      <c r="AR239" s="6">
+        <f t="shared" si="2"/>
+        <v>19281.660000000149</v>
+      </c>
+      <c r="DA239" s="15">
+        <v>9640.83</v>
+      </c>
+      <c r="DB239" s="17">
+        <v>2424892.25</v>
+      </c>
+    </row>
+    <row r="240" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM240" s="15">
+        <v>2537145.56</v>
+      </c>
+      <c r="AN240" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO240" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2535294.12</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2">
+      <c r="AR240" s="6">
+        <f t="shared" si="2"/>
+        <v>12854.439999999944</v>
+      </c>
+      <c r="DA240" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DB240" s="17">
+        <v>2431319.4700000002</v>
+      </c>
+    </row>
+    <row r="241" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM241" s="15">
+        <v>2543572.7799999998</v>
+      </c>
+      <c r="AN241" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO241" s="17">
         <v>2550000</v>
       </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="2">
-        <v>14705.88</v>
-      </c>
-      <c r="D93" s="2">
+      <c r="AR241" s="6">
+        <f t="shared" si="2"/>
+        <v>6427.2200000002049</v>
+      </c>
+      <c r="DA241" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DB241" s="17">
+        <v>2444173.91</v>
+      </c>
+    </row>
+    <row r="242" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM242" s="15">
         <v>2550000</v>
       </c>
-      <c r="E93" s="2">
+      <c r="AN242" s="17">
         <v>50000</v>
       </c>
-      <c r="F93" s="2">
+      <c r="AO242" s="17">
         <v>2600000</v>
       </c>
-      <c r="J93" s="8"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J94" s="8"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J96" s="7"/>
+      <c r="AR242" s="6">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="DA242" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DB242" s="17">
+        <v>2457028.36</v>
+      </c>
+    </row>
+    <row r="243" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM243" s="20">
+        <v>2550000</v>
+      </c>
+      <c r="AN243" s="21">
+        <v>50000</v>
+      </c>
+      <c r="AO243" s="21">
+        <v>2600000</v>
+      </c>
+      <c r="AR243" s="6">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="DA243" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DB243" s="17">
+        <v>2469882.7999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM244" s="20">
+        <v>2550000</v>
+      </c>
+      <c r="AN244" s="21">
+        <v>2600000</v>
+      </c>
+      <c r="AO244" s="23">
+        <v>2600000</v>
+      </c>
+      <c r="AR244" s="6">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="DA244" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DB244" s="17">
+        <v>2482737.2400000002</v>
+      </c>
+    </row>
+    <row r="245" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM245" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="DA245" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DB245" s="17">
+        <v>2495591.6800000002</v>
+      </c>
+    </row>
+    <row r="246" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA246" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DB246" s="17">
+        <v>2508446.12</v>
+      </c>
+    </row>
+    <row r="247" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA247" s="15">
+        <v>12854.44</v>
+      </c>
+      <c r="DB247" s="17">
+        <v>2521300.5699999998</v>
+      </c>
+    </row>
+    <row r="248" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA248" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DB248" s="17">
+        <v>2534155.0099999998</v>
+      </c>
+    </row>
+    <row r="249" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA249" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DB249" s="17">
+        <v>2547009.4500000002</v>
+      </c>
+    </row>
+    <row r="250" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA250" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DB250" s="17">
+        <v>2559863.89</v>
+      </c>
+    </row>
+    <row r="251" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA251" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DB251" s="17">
+        <v>2566291.12</v>
+      </c>
+    </row>
+    <row r="252" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA252" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DB252" s="17">
+        <v>2572718.34</v>
+      </c>
+    </row>
+    <row r="253" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA253" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DB253" s="17">
+        <v>2579145.56</v>
+      </c>
+    </row>
+    <row r="254" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA254" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DB254" s="17">
+        <v>2585572.7799999998</v>
+      </c>
+    </row>
+    <row r="255" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DA255" s="15">
+        <v>6427.22</v>
+      </c>
+      <c r="DB255" s="17">
+        <v>2592000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Curva ad S.xlsx
+++ b/Curva ad S.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiasb\Desktop\GreenUrban_PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiasb\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70683241-9A23-42BF-8DC1-FCD5F39E2317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{697304AC-A1B1-469A-AE4D-A22BB1AAC76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B994825-C8D9-4FDA-83DA-6EDF7C872A4A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="93">
   <si>
     <t>Sett. 1</t>
   </si>
@@ -316,49 +317,6 @@
   <si>
     <t>-</t>
   </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fondi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: devono essere il massimo a nostro parere. Sul progetto campione superano il tetto massimo del budget esclusa la riserva di cont. (Impossibile?). Mentre i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">costi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>possono portare anche minori.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -367,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,19 +356,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -591,16 +536,10 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -619,6 +558,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4824,6 +4769,2495 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Curva ad S Aggiornata</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3951419126575218E-2"/>
+          <c:y val="7.5041345499942347E-2"/>
+          <c:w val="0.92895411760623037"/>
+          <c:h val="0.80877133765635223"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Costi incrementali</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$DA$59:$DA$150</c:f>
+              <c:strCache>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>Sett. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sett. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sett. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sett. 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sett. 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sett. 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sett. 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sett. 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sett. 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sett. 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sett. 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sett. 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sett. 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sett. 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sett. 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sett. 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sett. 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sett. 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sett. 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sett. 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sett. 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sett. 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sett. 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sett. 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sett. 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sett. 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sett. 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sett. 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sett. 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sett. 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sett. 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sett. 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sett. 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sett. 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sett. 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sett. 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sett. 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sett. 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sett. 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sett. 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sett. 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sett. 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Sett. 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sett. 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sett. 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sett. 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Sett. 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Sett. 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sett. 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Sett. 50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Sett. 51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Sett. 52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Sett. 53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Sett. 54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Sett. 55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Sett. 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Sett. 57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Sett. 58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Sett. 59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Sett. 60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Sett. 61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Sett. 62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Sett. 63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sett. 64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Sett. 65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Sett. 66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Sett. 67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Sett. 68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Sett. 69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Sett. 70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Sett. 71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Sett. 72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Sett. 73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Sett. 74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Sett. 75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Sett. 76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Sett. 77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Sett. 78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Sett. 79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Sett. 80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Sett. 81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Sett. 82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Sett. 83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Sett. 84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Sett. 85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Sett. 86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Sett. 87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Sett. 88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Sett. 89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Sett. 90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Sett. 91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Sett. 92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$DJ$183:$DJ$274</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>3213.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8034.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4820.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4820.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14820.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16068.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16068.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16068.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11247.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45529.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40529.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103621.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103621.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36956.519999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60233.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76301.929999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84335.96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77908.740000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102010.82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>148834.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116948.59</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107307.76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86192.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43633.74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62915.41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72594.990000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48430.69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48430.69</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40396.660000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40170.129999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43383.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40170.129999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43383.74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30529.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27315.69</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24102.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19281.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14461.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14461.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14461.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9640.83</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="#,##0.00">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="#,##0.00">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="#,##0.00">
+                  <c:v>12854.44</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6427.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD0C-459B-8665-357A6940567F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fondi incrementali</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EFA00B"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$DA$59:$DA$150</c:f>
+              <c:strCache>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>Sett. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sett. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sett. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sett. 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sett. 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sett. 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sett. 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sett. 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sett. 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sett. 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sett. 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sett. 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sett. 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sett. 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sett. 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sett. 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sett. 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sett. 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sett. 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sett. 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sett. 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sett. 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sett. 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sett. 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sett. 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sett. 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sett. 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sett. 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sett. 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sett. 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sett. 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sett. 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sett. 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sett. 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sett. 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sett. 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sett. 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sett. 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sett. 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sett. 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sett. 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sett. 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Sett. 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sett. 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sett. 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sett. 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Sett. 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Sett. 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sett. 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Sett. 50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Sett. 51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Sett. 52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Sett. 53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Sett. 54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Sett. 55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Sett. 56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Sett. 57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Sett. 58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Sett. 59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Sett. 60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Sett. 61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Sett. 62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Sett. 63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sett. 64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Sett. 65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Sett. 66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Sett. 67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Sett. 68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Sett. 69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Sett. 70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Sett. 71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Sett. 72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Sett. 73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Sett. 74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Sett. 75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Sett. 76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Sett. 77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Sett. 78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Sett. 79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Sett. 80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Sett. 81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Sett. 82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Sett. 83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Sett. 84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Sett. 85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Sett. 86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Sett. 87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Sett. 88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Sett. 89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Sett. 90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Sett. 91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Sett. 92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$DL$183:$DL$274</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD0C-459B-8665-357A6940567F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="655840496"/>
+        <c:axId val="655842416"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Costi comulativi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="26408B"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$2:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Sett. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sett. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sett. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sett. 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sett. 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sett. 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sett. 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sett. 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sett. 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sett. 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sett. 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sett. 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sett. 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sett. 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sett. 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sett. 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sett. 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sett. 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sett. 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sett. 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sett. 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sett. 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sett. 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sett. 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sett. 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sett. 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sett. 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sett. 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sett. 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sett. 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sett. 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sett. 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sett. 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sett. 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sett. 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sett. 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sett. 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sett. 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sett. 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sett. 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sett. 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sett. 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Sett. 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sett. 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sett. 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sett. 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Sett. 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Sett. 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sett. 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Sett. 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$DK$183:$DK$274</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>3213.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11247.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16068.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20888.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35708.879999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48563.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61417.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77485.820000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93553.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109621.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120869.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166398.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>206928.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310550.09000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>414172.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>451128.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>475230.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>499332.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>523434.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>547536.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>571638.93999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>631872.81999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>708174.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>792510.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>870419.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>972430.27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1121264.97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1238213.56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1345521.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1431714.08</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1475347.83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1538263.23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1610858.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1659288.91</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1707719.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1748116.26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1788286.39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1831670.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1871840.26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1915224.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1945753.31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1976282.61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2006811.91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2037341.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2064656.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2088758.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2112861.06</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2136963.14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2161065.2200000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2185167.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2209269.38</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2228551.04</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2243012.29</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2257473.5299999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2271934.7799999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2281575.61</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2291216.4500000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2300857.2799999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2310498.11</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2316925.33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2326566.16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2336206.9900000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2345847.83</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2355488.66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2365129.4900000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2374770.3199999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2384411.15</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2394051.98</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2403692.8199999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2413333.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2426188.09</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2435828.92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2445469.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2455110.59</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2464751.42</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2474392.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2480819.4700000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2493673.91</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2506528.36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2519382.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2532237.2400000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2545091.6800000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2557946.12</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2570800.5699999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2583655.0099999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2596509.4500000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2609363.89</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2615791.12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2622218.34</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2628645.56</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2635072.7799999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2641500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD0C-459B-8665-357A6940567F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Fondi comulativi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$2:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Sett. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sett. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sett. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sett. 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sett. 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sett. 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sett. 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sett. 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sett. 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sett. 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sett. 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sett. 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sett. 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sett. 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sett. 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sett. 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sett. 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sett. 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sett. 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sett. 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sett. 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sett. 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sett. 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sett. 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sett. 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sett. 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sett. 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sett. 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sett. 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sett. 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sett. 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sett. 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sett. 33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sett. 34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sett. 35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sett. 36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sett. 37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sett. 38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sett. 39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sett. 40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sett. 41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sett. 42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Sett. 43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Sett. 44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sett. 45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sett. 46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Sett. 47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Sett. 48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sett. 49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Sett. 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$DM$183:$DM$274</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2300000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2650000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2660000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD0C-459B-8665-357A6940567F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="655840496"/>
+        <c:axId val="655842416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655840496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655842416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655842416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655840496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="26408B"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="EFA00B"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4865,6 +7299,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5936,6 +8410,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6007,6 +8997,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>611480</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>341018</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F46E6F-5AF4-4F51-A9BD-6E8971D8D6C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6332,10 +9360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132D7FCD-E63B-4E21-BAD9-BCAF5A9D2284}">
-  <dimension ref="B2:DE255"/>
+  <dimension ref="B2:DN404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DE58" zoomScale="107" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="DH141" sqref="DH141"/>
+    <sheetView tabSelected="1" topLeftCell="DN180" zoomScale="94" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="EP188" sqref="EP188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6361,6 +9389,13 @@
     <col min="107" max="107" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="23" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="27.28515625" customWidth="1"/>
+    <col min="114" max="114" width="20.5703125" customWidth="1"/>
+    <col min="115" max="115" width="23.42578125" customWidth="1"/>
+    <col min="116" max="116" width="22.140625" customWidth="1"/>
+    <col min="117" max="117" width="25.140625" customWidth="1"/>
+    <col min="118" max="118" width="18.85546875" customWidth="1"/>
+    <col min="139" max="143" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -7362,7 +10397,7 @@
       </c>
     </row>
     <row r="59" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA59" s="24" t="s">
+      <c r="DA59" s="22" t="s">
         <v>0</v>
       </c>
       <c r="DB59" s="7">
@@ -7379,7 +10414,7 @@
       </c>
     </row>
     <row r="60" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA60" s="25" t="s">
+      <c r="DA60" s="23" t="s">
         <v>1</v>
       </c>
       <c r="DB60" s="9">
@@ -7396,7 +10431,7 @@
       </c>
     </row>
     <row r="61" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA61" s="25" t="s">
+      <c r="DA61" s="23" t="s">
         <v>2</v>
       </c>
       <c r="DB61" s="9">
@@ -7413,7 +10448,7 @@
       </c>
     </row>
     <row r="62" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA62" s="25" t="s">
+      <c r="DA62" s="23" t="s">
         <v>3</v>
       </c>
       <c r="DB62" s="9">
@@ -7430,7 +10465,7 @@
       </c>
     </row>
     <row r="63" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA63" s="25" t="s">
+      <c r="DA63" s="23" t="s">
         <v>4</v>
       </c>
       <c r="DB63" s="9">
@@ -7447,7 +10482,7 @@
       </c>
     </row>
     <row r="64" spans="2:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA64" s="25" t="s">
+      <c r="DA64" s="23" t="s">
         <v>5</v>
       </c>
       <c r="DB64" s="9">
@@ -7464,7 +10499,7 @@
       </c>
     </row>
     <row r="65" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA65" s="25" t="s">
+      <c r="DA65" s="23" t="s">
         <v>6</v>
       </c>
       <c r="DB65" s="9">
@@ -7481,7 +10516,7 @@
       </c>
     </row>
     <row r="66" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA66" s="25" t="s">
+      <c r="DA66" s="23" t="s">
         <v>7</v>
       </c>
       <c r="DB66" s="9">
@@ -7498,7 +10533,7 @@
       </c>
     </row>
     <row r="67" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA67" s="25" t="s">
+      <c r="DA67" s="23" t="s">
         <v>8</v>
       </c>
       <c r="DB67" s="9">
@@ -7515,7 +10550,7 @@
       </c>
     </row>
     <row r="68" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA68" s="25" t="s">
+      <c r="DA68" s="23" t="s">
         <v>9</v>
       </c>
       <c r="DB68" s="9">
@@ -7532,7 +10567,7 @@
       </c>
     </row>
     <row r="69" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA69" s="25" t="s">
+      <c r="DA69" s="23" t="s">
         <v>10</v>
       </c>
       <c r="DB69" s="9">
@@ -7549,7 +10584,7 @@
       </c>
     </row>
     <row r="70" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA70" s="25" t="s">
+      <c r="DA70" s="23" t="s">
         <v>11</v>
       </c>
       <c r="DB70" s="9">
@@ -7566,7 +10601,7 @@
       </c>
     </row>
     <row r="71" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA71" s="25" t="s">
+      <c r="DA71" s="23" t="s">
         <v>12</v>
       </c>
       <c r="DB71" s="9">
@@ -7583,7 +10618,7 @@
       </c>
     </row>
     <row r="72" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA72" s="25" t="s">
+      <c r="DA72" s="23" t="s">
         <v>13</v>
       </c>
       <c r="DB72" s="9">
@@ -7600,7 +10635,7 @@
       </c>
     </row>
     <row r="73" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA73" s="25" t="s">
+      <c r="DA73" s="23" t="s">
         <v>14</v>
       </c>
       <c r="DB73" s="9">
@@ -7617,7 +10652,7 @@
       </c>
     </row>
     <row r="74" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA74" s="25" t="s">
+      <c r="DA74" s="23" t="s">
         <v>15</v>
       </c>
       <c r="DB74" s="9">
@@ -7634,7 +10669,7 @@
       </c>
     </row>
     <row r="75" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA75" s="25" t="s">
+      <c r="DA75" s="23" t="s">
         <v>16</v>
       </c>
       <c r="DB75" s="9">
@@ -7651,7 +10686,7 @@
       </c>
     </row>
     <row r="76" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA76" s="26" t="s">
+      <c r="DA76" s="24" t="s">
         <v>17</v>
       </c>
       <c r="DB76" s="12">
@@ -7668,7 +10703,7 @@
       </c>
     </row>
     <row r="77" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA77" s="27" t="s">
+      <c r="DA77" s="25" t="s">
         <v>18</v>
       </c>
       <c r="DB77" s="15">
@@ -7685,7 +10720,7 @@
       </c>
     </row>
     <row r="78" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA78" s="27" t="s">
+      <c r="DA78" s="25" t="s">
         <v>19</v>
       </c>
       <c r="DB78" s="15">
@@ -7702,7 +10737,7 @@
       </c>
     </row>
     <row r="79" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA79" s="27" t="s">
+      <c r="DA79" s="25" t="s">
         <v>20</v>
       </c>
       <c r="DB79" s="15">
@@ -7719,7 +10754,7 @@
       </c>
     </row>
     <row r="80" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA80" s="27" t="s">
+      <c r="DA80" s="25" t="s">
         <v>21</v>
       </c>
       <c r="DB80" s="15">
@@ -7736,7 +10771,7 @@
       </c>
     </row>
     <row r="81" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA81" s="27" t="s">
+      <c r="DA81" s="25" t="s">
         <v>22</v>
       </c>
       <c r="DB81" s="15">
@@ -7753,7 +10788,7 @@
       </c>
     </row>
     <row r="82" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA82" s="27" t="s">
+      <c r="DA82" s="25" t="s">
         <v>23</v>
       </c>
       <c r="DB82" s="15">
@@ -7770,7 +10805,7 @@
       </c>
     </row>
     <row r="83" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA83" s="27" t="s">
+      <c r="DA83" s="25" t="s">
         <v>24</v>
       </c>
       <c r="DB83" s="15">
@@ -7787,7 +10822,7 @@
       </c>
     </row>
     <row r="84" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA84" s="27" t="s">
+      <c r="DA84" s="25" t="s">
         <v>25</v>
       </c>
       <c r="DB84" s="15">
@@ -7804,7 +10839,7 @@
       </c>
     </row>
     <row r="85" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA85" s="27" t="s">
+      <c r="DA85" s="25" t="s">
         <v>26</v>
       </c>
       <c r="DB85" s="15">
@@ -7821,7 +10856,7 @@
       </c>
     </row>
     <row r="86" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA86" s="27" t="s">
+      <c r="DA86" s="25" t="s">
         <v>27</v>
       </c>
       <c r="DB86" s="15">
@@ -7838,7 +10873,7 @@
       </c>
     </row>
     <row r="87" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA87" s="27" t="s">
+      <c r="DA87" s="25" t="s">
         <v>28</v>
       </c>
       <c r="DB87" s="15">
@@ -7855,7 +10890,7 @@
       </c>
     </row>
     <row r="88" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA88" s="27" t="s">
+      <c r="DA88" s="25" t="s">
         <v>29</v>
       </c>
       <c r="DB88" s="15">
@@ -7872,7 +10907,7 @@
       </c>
     </row>
     <row r="89" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA89" s="27" t="s">
+      <c r="DA89" s="25" t="s">
         <v>30</v>
       </c>
       <c r="DB89" s="15">
@@ -7889,7 +10924,7 @@
       </c>
     </row>
     <row r="90" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA90" s="27" t="s">
+      <c r="DA90" s="25" t="s">
         <v>31</v>
       </c>
       <c r="DB90" s="15">
@@ -7906,7 +10941,7 @@
       </c>
     </row>
     <row r="91" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA91" s="27" t="s">
+      <c r="DA91" s="25" t="s">
         <v>32</v>
       </c>
       <c r="DB91" s="15">
@@ -7923,7 +10958,7 @@
       </c>
     </row>
     <row r="92" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA92" s="27" t="s">
+      <c r="DA92" s="25" t="s">
         <v>33</v>
       </c>
       <c r="DB92" s="15">
@@ -7940,7 +10975,7 @@
       </c>
     </row>
     <row r="93" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA93" s="27" t="s">
+      <c r="DA93" s="25" t="s">
         <v>34</v>
       </c>
       <c r="DB93" s="15">
@@ -7957,7 +10992,7 @@
       </c>
     </row>
     <row r="94" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA94" s="27" t="s">
+      <c r="DA94" s="25" t="s">
         <v>35</v>
       </c>
       <c r="DB94" s="15">
@@ -7974,7 +11009,7 @@
       </c>
     </row>
     <row r="95" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA95" s="27" t="s">
+      <c r="DA95" s="25" t="s">
         <v>36</v>
       </c>
       <c r="DB95" s="15">
@@ -7991,7 +11026,7 @@
       </c>
     </row>
     <row r="96" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA96" s="27" t="s">
+      <c r="DA96" s="25" t="s">
         <v>37</v>
       </c>
       <c r="DB96" s="15">
@@ -8008,7 +11043,7 @@
       </c>
     </row>
     <row r="97" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA97" s="27" t="s">
+      <c r="DA97" s="25" t="s">
         <v>38</v>
       </c>
       <c r="DB97" s="15">
@@ -8025,7 +11060,7 @@
       </c>
     </row>
     <row r="98" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA98" s="27" t="s">
+      <c r="DA98" s="25" t="s">
         <v>39</v>
       </c>
       <c r="DB98" s="15">
@@ -8042,7 +11077,7 @@
       </c>
     </row>
     <row r="99" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA99" s="27" t="s">
+      <c r="DA99" s="25" t="s">
         <v>40</v>
       </c>
       <c r="DB99" s="15">
@@ -8059,7 +11094,7 @@
       </c>
     </row>
     <row r="100" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA100" s="27" t="s">
+      <c r="DA100" s="25" t="s">
         <v>41</v>
       </c>
       <c r="DB100" s="15">
@@ -8076,7 +11111,7 @@
       </c>
     </row>
     <row r="101" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA101" s="27" t="s">
+      <c r="DA101" s="25" t="s">
         <v>42</v>
       </c>
       <c r="DB101" s="15">
@@ -8093,7 +11128,7 @@
       </c>
     </row>
     <row r="102" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA102" s="27" t="s">
+      <c r="DA102" s="25" t="s">
         <v>43</v>
       </c>
       <c r="DB102" s="15">
@@ -8110,7 +11145,7 @@
       </c>
     </row>
     <row r="103" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA103" s="27" t="s">
+      <c r="DA103" s="25" t="s">
         <v>44</v>
       </c>
       <c r="DB103" s="15">
@@ -8127,7 +11162,7 @@
       </c>
     </row>
     <row r="104" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA104" s="27" t="s">
+      <c r="DA104" s="25" t="s">
         <v>45</v>
       </c>
       <c r="DB104" s="15">
@@ -8144,7 +11179,7 @@
       </c>
     </row>
     <row r="105" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA105" s="27" t="s">
+      <c r="DA105" s="25" t="s">
         <v>46</v>
       </c>
       <c r="DB105" s="15">
@@ -8161,7 +11196,7 @@
       </c>
     </row>
     <row r="106" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA106" s="27" t="s">
+      <c r="DA106" s="25" t="s">
         <v>47</v>
       </c>
       <c r="DB106" s="15">
@@ -8178,7 +11213,7 @@
       </c>
     </row>
     <row r="107" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA107" s="27" t="s">
+      <c r="DA107" s="25" t="s">
         <v>48</v>
       </c>
       <c r="DB107" s="15">
@@ -8195,7 +11230,7 @@
       </c>
     </row>
     <row r="108" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA108" s="27" t="s">
+      <c r="DA108" s="25" t="s">
         <v>49</v>
       </c>
       <c r="DB108" s="15">
@@ -8212,7 +11247,7 @@
       </c>
     </row>
     <row r="109" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA109" s="27" t="s">
+      <c r="DA109" s="25" t="s">
         <v>50</v>
       </c>
       <c r="DB109" s="15">
@@ -8229,7 +11264,7 @@
       </c>
     </row>
     <row r="110" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA110" s="27" t="s">
+      <c r="DA110" s="25" t="s">
         <v>51</v>
       </c>
       <c r="DB110" s="15">
@@ -8246,7 +11281,7 @@
       </c>
     </row>
     <row r="111" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA111" s="27" t="s">
+      <c r="DA111" s="25" t="s">
         <v>52</v>
       </c>
       <c r="DB111" s="15">
@@ -8263,7 +11298,7 @@
       </c>
     </row>
     <row r="112" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA112" s="27" t="s">
+      <c r="DA112" s="25" t="s">
         <v>53</v>
       </c>
       <c r="DB112" s="15">
@@ -8280,7 +11315,7 @@
       </c>
     </row>
     <row r="113" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA113" s="27" t="s">
+      <c r="DA113" s="25" t="s">
         <v>54</v>
       </c>
       <c r="DB113" s="15">
@@ -8297,7 +11332,7 @@
       </c>
     </row>
     <row r="114" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA114" s="27" t="s">
+      <c r="DA114" s="25" t="s">
         <v>55</v>
       </c>
       <c r="DB114" s="15">
@@ -8314,7 +11349,7 @@
       </c>
     </row>
     <row r="115" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA115" s="27" t="s">
+      <c r="DA115" s="25" t="s">
         <v>56</v>
       </c>
       <c r="DB115" s="15">
@@ -8331,7 +11366,7 @@
       </c>
     </row>
     <row r="116" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA116" s="27" t="s">
+      <c r="DA116" s="25" t="s">
         <v>57</v>
       </c>
       <c r="DB116" s="15">
@@ -8348,7 +11383,7 @@
       </c>
     </row>
     <row r="117" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA117" s="27" t="s">
+      <c r="DA117" s="25" t="s">
         <v>58</v>
       </c>
       <c r="DB117" s="15">
@@ -8365,7 +11400,7 @@
       </c>
     </row>
     <row r="118" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA118" s="27" t="s">
+      <c r="DA118" s="25" t="s">
         <v>59</v>
       </c>
       <c r="DB118" s="15">
@@ -8382,7 +11417,7 @@
       </c>
     </row>
     <row r="119" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA119" s="27" t="s">
+      <c r="DA119" s="25" t="s">
         <v>60</v>
       </c>
       <c r="DB119" s="15">
@@ -8399,7 +11434,7 @@
       </c>
     </row>
     <row r="120" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA120" s="27" t="s">
+      <c r="DA120" s="25" t="s">
         <v>61</v>
       </c>
       <c r="DB120" s="15">
@@ -8416,7 +11451,7 @@
       </c>
     </row>
     <row r="121" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA121" s="27" t="s">
+      <c r="DA121" s="25" t="s">
         <v>62</v>
       </c>
       <c r="DB121" s="15">
@@ -8433,7 +11468,7 @@
       </c>
     </row>
     <row r="122" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA122" s="27" t="s">
+      <c r="DA122" s="25" t="s">
         <v>63</v>
       </c>
       <c r="DB122" s="15">
@@ -8450,7 +11485,7 @@
       </c>
     </row>
     <row r="123" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA123" s="27" t="s">
+      <c r="DA123" s="25" t="s">
         <v>64</v>
       </c>
       <c r="DB123" s="15">
@@ -8467,7 +11502,7 @@
       </c>
     </row>
     <row r="124" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA124" s="27" t="s">
+      <c r="DA124" s="25" t="s">
         <v>65</v>
       </c>
       <c r="DB124" s="15">
@@ -8484,7 +11519,7 @@
       </c>
     </row>
     <row r="125" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA125" s="27" t="s">
+      <c r="DA125" s="25" t="s">
         <v>66</v>
       </c>
       <c r="DB125" s="15">
@@ -8501,7 +11536,7 @@
       </c>
     </row>
     <row r="126" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA126" s="27" t="s">
+      <c r="DA126" s="25" t="s">
         <v>67</v>
       </c>
       <c r="DB126" s="15">
@@ -8518,7 +11553,7 @@
       </c>
     </row>
     <row r="127" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA127" s="27" t="s">
+      <c r="DA127" s="25" t="s">
         <v>68</v>
       </c>
       <c r="DB127" s="15">
@@ -8535,7 +11570,7 @@
       </c>
     </row>
     <row r="128" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA128" s="27" t="s">
+      <c r="DA128" s="25" t="s">
         <v>69</v>
       </c>
       <c r="DB128" s="15">
@@ -8552,7 +11587,7 @@
       </c>
     </row>
     <row r="129" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA129" s="28" t="s">
+      <c r="DA129" s="26" t="s">
         <v>70</v>
       </c>
       <c r="DB129" s="15">
@@ -8561,7 +11596,7 @@
       <c r="DC129" s="17">
         <v>2376688.09</v>
       </c>
-      <c r="DD129" s="22">
+      <c r="DD129" s="21">
         <v>0</v>
       </c>
       <c r="DE129" s="17">
@@ -8569,7 +11604,7 @@
       </c>
     </row>
     <row r="130" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA130" s="27" t="s">
+      <c r="DA130" s="25" t="s">
         <v>71</v>
       </c>
       <c r="DB130" s="15">
@@ -8586,7 +11621,7 @@
       </c>
     </row>
     <row r="131" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA131" s="27" t="s">
+      <c r="DA131" s="25" t="s">
         <v>72</v>
       </c>
       <c r="DB131" s="15">
@@ -8603,7 +11638,7 @@
       </c>
     </row>
     <row r="132" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA132" s="27" t="s">
+      <c r="DA132" s="25" t="s">
         <v>73</v>
       </c>
       <c r="DB132" s="15">
@@ -8620,7 +11655,7 @@
       </c>
     </row>
     <row r="133" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA133" s="27" t="s">
+      <c r="DA133" s="25" t="s">
         <v>74</v>
       </c>
       <c r="DB133" s="15">
@@ -8637,7 +11672,7 @@
       </c>
     </row>
     <row r="134" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA134" s="27" t="s">
+      <c r="DA134" s="25" t="s">
         <v>75</v>
       </c>
       <c r="DB134" s="15">
@@ -8654,7 +11689,7 @@
       </c>
     </row>
     <row r="135" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA135" s="27" t="s">
+      <c r="DA135" s="25" t="s">
         <v>76</v>
       </c>
       <c r="DB135" s="15">
@@ -8671,7 +11706,7 @@
       </c>
     </row>
     <row r="136" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA136" s="27" t="s">
+      <c r="DA136" s="25" t="s">
         <v>77</v>
       </c>
       <c r="DB136" s="15">
@@ -8688,7 +11723,7 @@
       </c>
     </row>
     <row r="137" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA137" s="27" t="s">
+      <c r="DA137" s="25" t="s">
         <v>78</v>
       </c>
       <c r="DB137" s="15">
@@ -8705,7 +11740,7 @@
       </c>
     </row>
     <row r="138" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA138" s="27" t="s">
+      <c r="DA138" s="25" t="s">
         <v>79</v>
       </c>
       <c r="DB138" s="15">
@@ -8722,7 +11757,7 @@
       </c>
     </row>
     <row r="139" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA139" s="27" t="s">
+      <c r="DA139" s="25" t="s">
         <v>80</v>
       </c>
       <c r="DB139" s="15">
@@ -8739,7 +11774,7 @@
       </c>
     </row>
     <row r="140" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA140" s="27" t="s">
+      <c r="DA140" s="25" t="s">
         <v>81</v>
       </c>
       <c r="DB140" s="15">
@@ -8756,7 +11791,7 @@
       </c>
     </row>
     <row r="141" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA141" s="27" t="s">
+      <c r="DA141" s="25" t="s">
         <v>82</v>
       </c>
       <c r="DB141" s="15">
@@ -8773,7 +11808,7 @@
       </c>
     </row>
     <row r="142" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA142" s="27" t="s">
+      <c r="DA142" s="25" t="s">
         <v>83</v>
       </c>
       <c r="DB142" s="15">
@@ -8790,10 +11825,10 @@
       </c>
     </row>
     <row r="143" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA143" s="27" t="s">
+      <c r="DA143" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="DB143" s="29">
+      <c r="DB143" s="27">
         <v>12854.44</v>
       </c>
       <c r="DC143" s="17">
@@ -8807,10 +11842,10 @@
       </c>
     </row>
     <row r="144" spans="105:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA144" s="27" t="s">
+      <c r="DA144" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="DB144" s="29">
+      <c r="DB144" s="27">
         <v>12854.44</v>
       </c>
       <c r="DC144" s="17">
@@ -8824,10 +11859,10 @@
       </c>
     </row>
     <row r="145" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA145" s="27" t="s">
+      <c r="DA145" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="DB145" s="29">
+      <c r="DB145" s="27">
         <v>12854.44</v>
       </c>
       <c r="DC145" s="17">
@@ -8841,7 +11876,7 @@
       </c>
     </row>
     <row r="146" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA146" s="27" t="s">
+      <c r="DA146" s="25" t="s">
         <v>87</v>
       </c>
       <c r="DB146" s="15">
@@ -8858,7 +11893,7 @@
       </c>
     </row>
     <row r="147" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA147" s="27" t="s">
+      <c r="DA147" s="25" t="s">
         <v>88</v>
       </c>
       <c r="DB147" s="15">
@@ -8875,7 +11910,7 @@
       </c>
     </row>
     <row r="148" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA148" s="27" t="s">
+      <c r="DA148" s="25" t="s">
         <v>89</v>
       </c>
       <c r="DB148" s="15">
@@ -8892,7 +11927,7 @@
       </c>
     </row>
     <row r="149" spans="39:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA149" s="27" t="s">
+      <c r="DA149" s="25" t="s">
         <v>90</v>
       </c>
       <c r="DB149" s="15">
@@ -8922,7 +11957,7 @@
         <f>AO150-AM150</f>
         <v>96786.39</v>
       </c>
-      <c r="DA150" s="27" t="s">
+      <c r="DA150" s="25" t="s">
         <v>91</v>
       </c>
       <c r="DB150" s="15">
@@ -8949,7 +11984,7 @@
         <v>100000</v>
       </c>
       <c r="AR151" s="6">
-        <f t="shared" ref="AR151:AR211" si="1">AO151-AM151</f>
+        <f t="shared" ref="AR151:AR163" si="1">AO151-AM151</f>
         <v>88752.36</v>
       </c>
     </row>
@@ -9088,7 +12123,7 @@
         <v>389130.43</v>
       </c>
     </row>
-    <row r="161" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="39:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AM161" s="15">
         <v>141398.87</v>
       </c>
@@ -9103,7 +12138,7 @@
         <v>358601.13</v>
       </c>
     </row>
-    <row r="162" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="39:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AM162" s="18">
         <v>141398.87</v>
       </c>
@@ -9118,7 +12153,7 @@
         <v>458601.13</v>
       </c>
     </row>
-    <row r="163" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="39:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AM163" s="9">
         <v>171928.17</v>
       </c>
@@ -9133,1796 +12168,2314 @@
         <v>428071.82999999996</v>
       </c>
     </row>
-    <row r="164" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM164" s="9">
-        <v>271550.09000000003</v>
-      </c>
-      <c r="AN164" s="10" t="s">
+    <row r="182" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI183" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ183" s="8">
+        <v>3213.61</v>
+      </c>
+      <c r="DK183" s="8">
+        <v>3213.61</v>
+      </c>
+      <c r="DL183" s="8">
+        <v>100000</v>
+      </c>
+      <c r="DM183" s="8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="184" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI184" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ184" s="11">
+        <v>8034.03</v>
+      </c>
+      <c r="DK184" s="11">
+        <v>11247.64</v>
+      </c>
+      <c r="DL184" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM184" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="185" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI185" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="DJ185" s="11">
+        <v>4820.42</v>
+      </c>
+      <c r="DK185" s="11">
+        <v>16068.05</v>
+      </c>
+      <c r="DL185" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM185" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="186" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI186" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ186" s="11">
+        <v>4820.42</v>
+      </c>
+      <c r="DK186" s="11">
+        <v>20888.47</v>
+      </c>
+      <c r="DL186" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM186" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="187" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI187" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="DJ187" s="11">
+        <v>14820.42</v>
+      </c>
+      <c r="DK187" s="11">
+        <v>35708.879999999997</v>
+      </c>
+      <c r="DL187" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM187" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="188" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI188" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="DJ188" s="11">
+        <v>12854.44</v>
+      </c>
+      <c r="DK188" s="11">
+        <v>48563.33</v>
+      </c>
+      <c r="DL188" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM188" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="189" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI189" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="DJ189" s="11">
+        <v>12854.44</v>
+      </c>
+      <c r="DK189" s="11">
+        <v>61417.77</v>
+      </c>
+      <c r="DL189" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM189" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="190" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI190" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ190" s="11">
+        <v>16068.05</v>
+      </c>
+      <c r="DK190" s="11">
+        <v>77485.820000000007</v>
+      </c>
+      <c r="DL190" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM190" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="191" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI191" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="DJ191" s="11">
+        <v>16068.05</v>
+      </c>
+      <c r="DK191" s="11">
+        <v>93553.88</v>
+      </c>
+      <c r="DL191" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM191" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="192" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI192" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="DJ192" s="11">
+        <v>16068.05</v>
+      </c>
+      <c r="DK192" s="11">
+        <v>109621.93</v>
+      </c>
+      <c r="DL192" s="11">
+        <v>500000</v>
+      </c>
+      <c r="DM192" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="193" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI193" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="DJ193" s="11">
+        <v>11247.64</v>
+      </c>
+      <c r="DK193" s="11">
+        <v>120869.57</v>
+      </c>
+      <c r="DL193" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM193" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="194" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI194" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="DJ194" s="11">
+        <v>45529.3</v>
+      </c>
+      <c r="DK194" s="11">
+        <v>166398.87</v>
+      </c>
+      <c r="DL194" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM194" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="195" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI195" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="DJ195" s="11">
+        <v>40529.300000000003</v>
+      </c>
+      <c r="DK195" s="11">
+        <v>206928.17</v>
+      </c>
+      <c r="DL195" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM195" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="196" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI196" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="DJ196" s="11">
+        <v>103621.93</v>
+      </c>
+      <c r="DK196" s="11">
+        <v>310550.09000000003</v>
+      </c>
+      <c r="DL196" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM196" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="197" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI197" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="DJ197" s="11">
+        <v>103621.93</v>
+      </c>
+      <c r="DK197" s="11">
+        <v>414172.02</v>
+      </c>
+      <c r="DL197" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM197" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="198" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI198" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ198" s="11">
+        <v>36956.519999999997</v>
+      </c>
+      <c r="DK198" s="11">
+        <v>451128.54</v>
+      </c>
+      <c r="DL198" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM198" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="199" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI199" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="DJ199" s="11">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK199" s="11">
+        <v>475230.62</v>
+      </c>
+      <c r="DL199" s="10">
+        <v>0</v>
+      </c>
+      <c r="DM199" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="200" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI200" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="DJ200" s="14">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK200" s="14">
+        <v>499332.7</v>
+      </c>
+      <c r="DL200" s="13">
+        <v>0</v>
+      </c>
+      <c r="DM200" s="14">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="201" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI201" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="DJ201" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK201" s="17">
+        <v>523434.78</v>
+      </c>
+      <c r="DL201" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM201" s="17">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="202" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI202" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="DJ202" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK202" s="17">
+        <v>547536.86</v>
+      </c>
+      <c r="DL202" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="DM202" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="203" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI203" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="DJ203" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK203" s="17">
+        <v>571638.93999999994</v>
+      </c>
+      <c r="DL203" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM203" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="204" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI204" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="DJ204" s="17">
+        <v>60233.88</v>
+      </c>
+      <c r="DK204" s="17">
+        <v>631872.81999999995</v>
+      </c>
+      <c r="DL204" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM204" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="205" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI205" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ205" s="17">
+        <v>76301.929999999993</v>
+      </c>
+      <c r="DK205" s="17">
+        <v>708174.75</v>
+      </c>
+      <c r="DL205" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM205" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="206" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI206" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="DJ206" s="17">
+        <v>84335.96</v>
+      </c>
+      <c r="DK206" s="17">
+        <v>792510.71</v>
+      </c>
+      <c r="DL206" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM206" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="207" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI207" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="DJ207" s="17">
+        <v>77908.740000000005</v>
+      </c>
+      <c r="DK207" s="17">
+        <v>870419.45</v>
+      </c>
+      <c r="DL207" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM207" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="208" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI208" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="DJ208" s="17">
+        <v>102010.82</v>
+      </c>
+      <c r="DK208" s="17">
+        <v>972430.27</v>
+      </c>
+      <c r="DL208" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM208" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="209" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI209" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="DJ209" s="17">
+        <v>148834.70000000001</v>
+      </c>
+      <c r="DK209" s="17">
+        <v>1121264.97</v>
+      </c>
+      <c r="DL209" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM209" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="210" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI210" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="DJ210" s="17">
+        <v>116948.59</v>
+      </c>
+      <c r="DK210" s="17">
+        <v>1238213.56</v>
+      </c>
+      <c r="DL210" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM210" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="211" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI211" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="DJ211" s="17">
+        <v>107307.76</v>
+      </c>
+      <c r="DK211" s="17">
+        <v>1345521.32</v>
+      </c>
+      <c r="DL211" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM211" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="212" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI212" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="DJ212" s="17">
+        <v>86192.76</v>
+      </c>
+      <c r="DK212" s="17">
+        <v>1431714.08</v>
+      </c>
+      <c r="DL212" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM212" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="213" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI213" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="DJ213" s="17">
+        <v>43633.74</v>
+      </c>
+      <c r="DK213" s="17">
+        <v>1475347.83</v>
+      </c>
+      <c r="DL213" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM213" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="214" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI214" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="DJ214" s="17">
+        <v>62915.41</v>
+      </c>
+      <c r="DK214" s="17">
+        <v>1538263.23</v>
+      </c>
+      <c r="DL214" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM214" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="215" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI215" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="DJ215" s="17">
+        <v>72594.990000000005</v>
+      </c>
+      <c r="DK215" s="17">
+        <v>1610858.22</v>
+      </c>
+      <c r="DL215" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM215" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="216" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI216" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="DJ216" s="17">
+        <v>48430.69</v>
+      </c>
+      <c r="DK216" s="17">
+        <v>1659288.91</v>
+      </c>
+      <c r="DL216" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM216" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="217" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI217" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ217" s="17">
+        <v>48430.69</v>
+      </c>
+      <c r="DK217" s="17">
+        <v>1707719.6</v>
+      </c>
+      <c r="DL217" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM217" s="17">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="218" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI218" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="DJ218" s="17">
+        <v>40396.660000000003</v>
+      </c>
+      <c r="DK218" s="17">
+        <v>1748116.26</v>
+      </c>
+      <c r="DL218" s="17">
+        <v>300000</v>
+      </c>
+      <c r="DM218" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="219" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI219" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ219" s="17">
+        <v>40170.129999999997</v>
+      </c>
+      <c r="DK219" s="17">
+        <v>1788286.39</v>
+      </c>
+      <c r="DL219" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM219" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="220" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI220" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="DJ220" s="17">
+        <v>43383.74</v>
+      </c>
+      <c r="DK220" s="17">
+        <v>1831670.13</v>
+      </c>
+      <c r="DL220" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM220" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="221" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI221" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="DJ221" s="17">
+        <v>40170.129999999997</v>
+      </c>
+      <c r="DK221" s="17">
+        <v>1871840.26</v>
+      </c>
+      <c r="DL221" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM221" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="222" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI222" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ222" s="17">
+        <v>43383.74</v>
+      </c>
+      <c r="DK222" s="17">
+        <v>1915224.01</v>
+      </c>
+      <c r="DL222" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM222" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="223" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI223" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ223" s="17">
+        <v>30529.3</v>
+      </c>
+      <c r="DK223" s="17">
+        <v>1945753.31</v>
+      </c>
+      <c r="DL223" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM223" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="224" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI224" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="DJ224" s="17">
+        <v>30529.3</v>
+      </c>
+      <c r="DK224" s="17">
+        <v>1976282.61</v>
+      </c>
+      <c r="DL224" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM224" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="225" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI225" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="DJ225" s="17">
+        <v>30529.3</v>
+      </c>
+      <c r="DK225" s="17">
+        <v>2006811.91</v>
+      </c>
+      <c r="DL225" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM225" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="226" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI226" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="DJ226" s="17">
+        <v>30529.3</v>
+      </c>
+      <c r="DK226" s="17">
+        <v>2037341.21</v>
+      </c>
+      <c r="DL226" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM226" s="17">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="227" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI227" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="DJ227" s="17">
+        <v>27315.69</v>
+      </c>
+      <c r="DK227" s="17">
+        <v>2064656.9</v>
+      </c>
+      <c r="DL227" s="17">
+        <v>200000</v>
+      </c>
+      <c r="DM227" s="17">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="228" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI228" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="DJ228" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK228" s="17">
+        <v>2088758.98</v>
+      </c>
+      <c r="DL228" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM228" s="17">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="229" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI229" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="DJ229" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK229" s="17">
+        <v>2112861.06</v>
+      </c>
+      <c r="DL229" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM229" s="17">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="230" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI230" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="DJ230" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK230" s="17">
+        <v>2136963.14</v>
+      </c>
+      <c r="DL230" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM230" s="17">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="231" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI231" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ231" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK231" s="17">
+        <v>2161065.2200000002</v>
+      </c>
+      <c r="DL231" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM231" s="17">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="232" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI232" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="DJ232" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK232" s="17">
+        <v>2185167.2999999998</v>
+      </c>
+      <c r="DL232" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM232" s="17">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="233" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI233" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="DJ233" s="17">
+        <v>24102.080000000002</v>
+      </c>
+      <c r="DK233" s="17">
+        <v>2209269.38</v>
+      </c>
+      <c r="DL233" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM233" s="17">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="234" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI234" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="DJ234" s="17">
+        <v>19281.66</v>
+      </c>
+      <c r="DK234" s="17">
+        <v>2228551.04</v>
+      </c>
+      <c r="DL234" s="17">
+        <v>200000</v>
+      </c>
+      <c r="DM234" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="235" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI235" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="DJ235" s="17">
+        <v>14461.25</v>
+      </c>
+      <c r="DK235" s="17">
+        <v>2243012.29</v>
+      </c>
+      <c r="DL235" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM235" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="236" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI236" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="DJ236" s="17">
+        <v>14461.25</v>
+      </c>
+      <c r="DK236" s="17">
+        <v>2257473.5299999998</v>
+      </c>
+      <c r="DL236" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM236" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="237" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI237" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="DJ237" s="17">
+        <v>14461.25</v>
+      </c>
+      <c r="DK237" s="17">
+        <v>2271934.7799999998</v>
+      </c>
+      <c r="DL237" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM237" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="238" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI238" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="DJ238" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK238" s="17">
+        <v>2281575.61</v>
+      </c>
+      <c r="DL238" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM238" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="239" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI239" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="DJ239" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK239" s="17">
+        <v>2291216.4500000002</v>
+      </c>
+      <c r="DL239" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM239" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="240" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI240" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ240" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK240" s="17">
+        <v>2300857.2799999998</v>
+      </c>
+      <c r="DL240" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM240" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="241" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI241" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="DJ241" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK241" s="17">
+        <v>2310498.11</v>
+      </c>
+      <c r="DL241" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM241" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="242" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI242" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="DJ242" s="17">
+        <v>6427.22</v>
+      </c>
+      <c r="DK242" s="17">
+        <v>2316925.33</v>
+      </c>
+      <c r="DL242" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM242" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="243" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI243" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ243" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK243" s="17">
+        <v>2326566.16</v>
+      </c>
+      <c r="DL243" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM243" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="244" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI244" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ244" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK244" s="17">
+        <v>2336206.9900000002</v>
+      </c>
+      <c r="DL244" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM244" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="245" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI245" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="DJ245" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK245" s="17">
+        <v>2345847.83</v>
+      </c>
+      <c r="DL245" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM245" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="246" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI246" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="DJ246" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK246" s="17">
+        <v>2355488.66</v>
+      </c>
+      <c r="DL246" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM246" s="17">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="247" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI247" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="DJ247" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK247" s="17">
+        <v>2365129.4900000002</v>
+      </c>
+      <c r="DL247" s="17">
+        <v>150000</v>
+      </c>
+      <c r="DM247" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="248" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI248" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="DJ248" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK248" s="17">
+        <v>2374770.3199999998</v>
+      </c>
+      <c r="DL248" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM248" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="249" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI249" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="DJ249" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK249" s="17">
+        <v>2384411.15</v>
+      </c>
+      <c r="DL249" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM249" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="250" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI250" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="DJ250" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK250" s="17">
+        <v>2394051.98</v>
+      </c>
+      <c r="DL250" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM250" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="251" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI251" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="DJ251" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK251" s="17">
+        <v>2403692.8199999998</v>
+      </c>
+      <c r="DL251" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM251" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="252" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI252" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="DJ252" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK252" s="17">
+        <v>2413333.65</v>
+      </c>
+      <c r="DL252" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM252" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="253" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI253" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="DJ253" s="17">
+        <v>12854.44</v>
+      </c>
+      <c r="DK253" s="17">
+        <v>2426188.09</v>
+      </c>
+      <c r="DL253" s="21">
+        <v>0</v>
+      </c>
+      <c r="DM253" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="254" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI254" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="DJ254" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK254" s="17">
+        <v>2435828.92</v>
+      </c>
+      <c r="DL254" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM254" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="255" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI255" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="DJ255" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK255" s="17">
+        <v>2445469.75</v>
+      </c>
+      <c r="DL255" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM255" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="256" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI256" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="DJ256" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK256" s="17">
+        <v>2455110.59</v>
+      </c>
+      <c r="DL256" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM256" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="257" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI257" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="DJ257" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK257" s="17">
+        <v>2464751.42</v>
+      </c>
+      <c r="DL257" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM257" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="258" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI258" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="DJ258" s="17">
+        <v>9640.83</v>
+      </c>
+      <c r="DK258" s="17">
+        <v>2474392.25</v>
+      </c>
+      <c r="DL258" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM258" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="259" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI259" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="DJ259" s="17">
+        <v>6427.22</v>
+      </c>
+      <c r="DK259" s="17">
+        <v>2480819.4700000002</v>
+      </c>
+      <c r="DL259" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM259" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="260" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI260" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="DJ260" s="17">
+        <v>12854.44</v>
+      </c>
+      <c r="DK260" s="17">
+        <v>2493673.91</v>
+      </c>
+      <c r="DL260" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM260" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="261" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI261" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="DJ261" s="17">
+        <v>12854.44</v>
+      </c>
+      <c r="DK261" s="17">
+        <v>2506528.36</v>
+      </c>
+      <c r="DL261" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM261" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="262" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI262" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ262" s="17">
+        <v>12854.44</v>
+      </c>
+      <c r="DK262" s="17">
+        <v>2519382.7999999998</v>
+      </c>
+      <c r="DL262" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM262" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="263" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI263" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="DJ263" s="17">
+        <v>12854.44</v>
+      </c>
+      <c r="DK263" s="17">
+        <v>2532237.2400000002</v>
+      </c>
+      <c r="DL263" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM263" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="264" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI264" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ264" s="17">
+        <v>12854.44</v>
+      </c>
+      <c r="DK264" s="17">
+        <v>2545091.6800000002</v>
+      </c>
+      <c r="DL264" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM264" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="265" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI265" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="DJ265" s="17">
+        <v>12854.44</v>
+      </c>
+      <c r="DK265" s="17">
+        <v>2557946.12</v>
+      </c>
+      <c r="DL265" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM265" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="266" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI266" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="DJ266" s="17">
+        <v>12854.44</v>
+      </c>
+      <c r="DK266" s="17">
+        <v>2570800.5699999998</v>
+      </c>
+      <c r="DL266" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM266" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="267" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI267" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="DJ267" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DK267" s="17">
+        <v>2583655.0099999998</v>
+      </c>
+      <c r="DL267" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM267" s="20">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="268" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI268" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="DJ268" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DK268" s="17">
+        <v>2596509.4500000002</v>
+      </c>
+      <c r="DL268" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM268" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="269" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI269" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="DJ269" s="29">
+        <v>12854.44</v>
+      </c>
+      <c r="DK269" s="17">
+        <v>2609363.89</v>
+      </c>
+      <c r="DL269" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM269" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="270" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI270" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="DJ270" s="17">
+        <v>6427.22</v>
+      </c>
+      <c r="DK270" s="17">
+        <v>2615791.12</v>
+      </c>
+      <c r="DL270" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM270" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="271" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI271" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="DJ271" s="17">
+        <v>6427.22</v>
+      </c>
+      <c r="DK271" s="17">
+        <v>2622218.34</v>
+      </c>
+      <c r="DL271" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM271" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="272" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI272" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="DJ272" s="17">
+        <v>6427.22</v>
+      </c>
+      <c r="DK272" s="17">
+        <v>2628645.56</v>
+      </c>
+      <c r="DL272" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM272" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="273" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI273" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="DJ273" s="17">
+        <v>6427.22</v>
+      </c>
+      <c r="DK273" s="17">
+        <v>2635072.7799999998</v>
+      </c>
+      <c r="DL273" s="16">
+        <v>0</v>
+      </c>
+      <c r="DM273" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="274" spans="113:117" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DI274" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="DJ274" s="17">
+        <v>6427.22</v>
+      </c>
+      <c r="DK274" s="17">
+        <v>2641500</v>
+      </c>
+      <c r="DL274" s="17">
+        <v>10000</v>
+      </c>
+      <c r="DM274" s="17">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="311" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="312" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM312" s="7">
+        <v>100000</v>
+      </c>
+      <c r="DN312" s="8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="313" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM313" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AO164" s="11">
+      <c r="DN313" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="314" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM314" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN314" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="315" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM315" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN315" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="316" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM316" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN316" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="317" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM317" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN317" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="318" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM318" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN318" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="319" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM319" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN319" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="320" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM320" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN320" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="321" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM321" s="9">
+        <v>500000</v>
+      </c>
+      <c r="DN321" s="11">
         <v>600000</v>
       </c>
-      <c r="AR164" s="6">
-        <f t="shared" si="1"/>
-        <v>328449.90999999997</v>
-      </c>
-      <c r="DA164" s="7">
-        <v>3213.61</v>
-      </c>
-      <c r="DB164" s="8">
-        <v>3213.61</v>
-      </c>
-    </row>
-    <row r="165" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM165" s="9">
-        <v>371172.02</v>
-      </c>
-      <c r="AN165" s="10" t="s">
+    </row>
+    <row r="322" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM322" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AO165" s="11">
+      <c r="DN322" s="11">
         <v>600000</v>
       </c>
-      <c r="AR165" s="6">
-        <f t="shared" si="1"/>
-        <v>228827.97999999998</v>
-      </c>
-      <c r="DA165" s="9">
-        <v>8034.03</v>
-      </c>
-      <c r="DB165" s="11">
-        <v>11247.64</v>
-      </c>
-    </row>
-    <row r="166" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM166" s="12">
-        <v>408128.54</v>
-      </c>
-      <c r="AN166" s="13" t="s">
+    </row>
+    <row r="323" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM323" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AO166" s="14">
+      <c r="DN323" s="11">
         <v>600000</v>
       </c>
-      <c r="AR166" s="6">
-        <f t="shared" si="1"/>
-        <v>191871.46000000002</v>
-      </c>
-      <c r="DA166" s="9">
-        <v>4820.42</v>
-      </c>
-      <c r="DB166" s="11">
-        <v>16068.05</v>
-      </c>
-    </row>
-    <row r="167" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM167" s="15">
-        <v>432230.62</v>
-      </c>
-      <c r="AN167" s="16" t="s">
+    </row>
+    <row r="324" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM324" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AO167" s="17">
+      <c r="DN324" s="11">
         <v>600000</v>
       </c>
-      <c r="AR167" s="6">
-        <f t="shared" si="1"/>
-        <v>167769.38</v>
-      </c>
-      <c r="DA167" s="9">
-        <v>4820.42</v>
-      </c>
-      <c r="DB167" s="11">
-        <v>20888.47</v>
-      </c>
-    </row>
-    <row r="168" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM168" s="15">
-        <v>456332.7</v>
-      </c>
-      <c r="AN168" s="16" t="s">
+    </row>
+    <row r="325" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM325" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AO168" s="17">
+      <c r="DN325" s="11">
         <v>600000</v>
       </c>
-      <c r="AR168" s="6">
-        <f t="shared" si="1"/>
-        <v>143667.29999999999</v>
-      </c>
-      <c r="DA168" s="9">
-        <v>4820.42</v>
-      </c>
-      <c r="DB168" s="11">
-        <v>25708.880000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM169" s="15">
-        <v>480434.78</v>
-      </c>
-      <c r="AN169" s="16" t="s">
+    </row>
+    <row r="326" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM326" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AO169" s="17">
+      <c r="DN326" s="11">
         <v>600000</v>
       </c>
-      <c r="AR169" s="6">
-        <f t="shared" si="1"/>
-        <v>119565.21999999997</v>
-      </c>
-      <c r="DA169" s="9">
-        <v>12854.44</v>
-      </c>
-      <c r="DB169" s="11">
-        <v>38563.33</v>
-      </c>
-    </row>
-    <row r="170" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM170" s="15">
-        <v>504536.86</v>
-      </c>
-      <c r="AN170" s="17">
+    </row>
+    <row r="327" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM327" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN327" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="328" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM328" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN328" s="11">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="329" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM329" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN329" s="14">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="330" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM330" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN330" s="17">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="331" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM331" s="15">
         <v>1200000</v>
       </c>
-      <c r="AO170" s="17">
+      <c r="DN331" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR170" s="6">
-        <f t="shared" si="1"/>
-        <v>1295463.1400000001</v>
-      </c>
-      <c r="DA170" s="9">
-        <v>12854.44</v>
-      </c>
-      <c r="DB170" s="11">
-        <v>51417.77</v>
-      </c>
-    </row>
-    <row r="171" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM171" s="15">
-        <v>528638.93999999994</v>
-      </c>
-      <c r="AN171" s="16" t="s">
+    </row>
+    <row r="332" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM332" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO171" s="17">
+      <c r="DN332" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR171" s="6">
-        <f t="shared" si="1"/>
-        <v>1271361.06</v>
-      </c>
-      <c r="DA171" s="9">
-        <v>16068.05</v>
-      </c>
-      <c r="DB171" s="11">
-        <v>67485.820000000007</v>
-      </c>
-    </row>
-    <row r="172" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM172" s="15">
-        <v>586483.93000000005</v>
-      </c>
-      <c r="AN172" s="16" t="s">
+    </row>
+    <row r="333" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM333" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO172" s="17">
+      <c r="DN333" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR172" s="6">
-        <f t="shared" si="1"/>
-        <v>1213516.0699999998</v>
-      </c>
-      <c r="DA172" s="9">
-        <v>16068.05</v>
-      </c>
-      <c r="DB172" s="11">
-        <v>83553.88</v>
-      </c>
-    </row>
-    <row r="173" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM173" s="9">
-        <v>660396.98</v>
-      </c>
-      <c r="AN173" s="10" t="s">
+    </row>
+    <row r="334" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM334" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO173" s="11">
+      <c r="DN334" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR173" s="6">
-        <f t="shared" si="1"/>
-        <v>1139603.02</v>
-      </c>
-      <c r="DA173" s="9">
-        <v>16068.05</v>
-      </c>
-      <c r="DB173" s="11">
-        <v>99621.93</v>
-      </c>
-    </row>
-    <row r="174" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM174" s="9">
-        <v>742344.05</v>
-      </c>
-      <c r="AN174" s="10" t="s">
+    </row>
+    <row r="335" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM335" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO174" s="11">
+      <c r="DN335" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR174" s="6">
-        <f t="shared" si="1"/>
-        <v>1057655.95</v>
-      </c>
-      <c r="DA174" s="9">
-        <v>11247.64</v>
-      </c>
-      <c r="DB174" s="11">
-        <v>110869.57</v>
-      </c>
-    </row>
-    <row r="175" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM175" s="18">
-        <v>742344.05</v>
-      </c>
-      <c r="AN175" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="AO175" s="19">
+    </row>
+    <row r="336" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM336" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN336" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR175" s="6">
-        <f t="shared" si="1"/>
-        <v>1057655.95</v>
-      </c>
-      <c r="DA175" s="9">
-        <v>30529.3</v>
-      </c>
-      <c r="DB175" s="11">
-        <v>141398.87</v>
-      </c>
-    </row>
-    <row r="176" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM176" s="9">
-        <v>917485.82</v>
-      </c>
-      <c r="AN176" s="10" t="s">
+    </row>
+    <row r="337" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM337" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO176" s="11">
+      <c r="DN337" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR176" s="6">
-        <f t="shared" si="1"/>
-        <v>882514.18</v>
-      </c>
-      <c r="DA176" s="9">
-        <v>30529.3</v>
-      </c>
-      <c r="DB176" s="11">
-        <v>171928.17</v>
-      </c>
-    </row>
-    <row r="177" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM177" s="9">
-        <v>1062098.3</v>
-      </c>
-      <c r="AN177" s="10" t="s">
+    </row>
+    <row r="338" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM338" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO177" s="11">
+      <c r="DN338" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR177" s="6">
-        <f t="shared" si="1"/>
-        <v>737901.7</v>
-      </c>
-      <c r="DA177" s="9">
-        <v>103621.93</v>
-      </c>
-      <c r="DB177" s="11">
-        <v>275550.09000000003</v>
-      </c>
-    </row>
-    <row r="178" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM178" s="9">
-        <v>1174574.67</v>
-      </c>
-      <c r="AN178" s="10" t="s">
+    </row>
+    <row r="339" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM339" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO178" s="11">
+      <c r="DN339" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR178" s="6">
-        <f t="shared" si="1"/>
-        <v>625425.33000000007</v>
-      </c>
-      <c r="DA178" s="9">
-        <v>103621.93</v>
-      </c>
-      <c r="DB178" s="11">
-        <v>379172.02</v>
-      </c>
-    </row>
-    <row r="179" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM179" s="9">
-        <v>1277410.21</v>
-      </c>
-      <c r="AN179" s="10" t="s">
+    </row>
+    <row r="340" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM340" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO179" s="11">
+      <c r="DN340" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR179" s="6">
-        <f t="shared" si="1"/>
-        <v>522589.79000000004</v>
-      </c>
-      <c r="DA179" s="9">
-        <v>36956.519999999997</v>
-      </c>
-      <c r="DB179" s="11">
-        <v>416128.54</v>
-      </c>
-    </row>
-    <row r="180" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM180" s="9">
-        <v>1360964.08</v>
-      </c>
-      <c r="AN180" s="10" t="s">
+    </row>
+    <row r="341" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM341" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO180" s="11">
+      <c r="DN341" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR180" s="6">
-        <f t="shared" si="1"/>
-        <v>439035.91999999993</v>
-      </c>
-      <c r="DA180" s="9">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB180" s="11">
-        <v>440230.62</v>
-      </c>
-    </row>
-    <row r="181" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM181" s="9">
-        <v>1404347.83</v>
-      </c>
-      <c r="AN181" s="10" t="s">
+    </row>
+    <row r="342" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM342" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO181" s="11">
+      <c r="DN342" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR181" s="6">
-        <f t="shared" si="1"/>
-        <v>395652.16999999993</v>
-      </c>
-      <c r="DA181" s="12">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB181" s="14">
-        <v>464332.7</v>
-      </c>
-    </row>
-    <row r="182" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM182" s="9">
-        <v>1467013.23</v>
-      </c>
-      <c r="AN182" s="10" t="s">
+    </row>
+    <row r="343" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM343" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO182" s="11">
+      <c r="DN343" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR182" s="6">
-        <f t="shared" si="1"/>
-        <v>332986.77</v>
-      </c>
-      <c r="DA182" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB182" s="17">
-        <v>488434.78</v>
-      </c>
-    </row>
-    <row r="183" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM183" s="9">
-        <v>1524858.22</v>
-      </c>
-      <c r="AN183" s="10" t="s">
+    </row>
+    <row r="344" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM344" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO183" s="11">
+      <c r="DN344" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR183" s="6">
-        <f t="shared" si="1"/>
-        <v>275141.78000000003</v>
-      </c>
-      <c r="DA183" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB183" s="17">
-        <v>512536.86</v>
-      </c>
-    </row>
-    <row r="184" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM184" s="12">
-        <v>1571455.58</v>
-      </c>
-      <c r="AN184" s="13" t="s">
+    </row>
+    <row r="345" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM345" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO184" s="14">
+      <c r="DN345" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR184" s="6">
-        <f t="shared" si="1"/>
-        <v>228544.41999999993</v>
-      </c>
-      <c r="DA184" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB184" s="17">
-        <v>536638.93999999994</v>
-      </c>
-    </row>
-    <row r="185" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM185" s="15">
-        <v>1618052.93</v>
-      </c>
-      <c r="AN185" s="16" t="s">
+    </row>
+    <row r="346" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM346" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO185" s="17">
+      <c r="DN346" s="17">
         <v>1800000</v>
       </c>
-      <c r="AR185" s="6">
-        <f t="shared" si="1"/>
-        <v>181947.07000000007</v>
-      </c>
-      <c r="DA185" s="15">
-        <v>60233.88</v>
-      </c>
-      <c r="DB185" s="17">
-        <v>596872.81999999995</v>
-      </c>
-    </row>
-    <row r="186" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM186" s="15">
-        <v>1656616.26</v>
-      </c>
-      <c r="AN186" s="17">
+    </row>
+    <row r="347" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM347" s="15">
+        <v>250000</v>
+      </c>
+      <c r="DN347" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="348" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM348" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN348" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="349" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM349" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN349" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="350" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM350" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN350" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="351" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM351" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN351" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="352" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM352" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN352" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="353" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM353" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN353" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="354" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM354" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN354" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="355" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM355" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN355" s="17">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="356" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM356" s="15">
         <v>200000</v>
       </c>
-      <c r="AO186" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="AR186" s="6">
-        <f t="shared" si="1"/>
-        <v>343383.74</v>
-      </c>
-      <c r="DA186" s="15">
-        <v>76301.929999999993</v>
-      </c>
-      <c r="DB186" s="17">
-        <v>673174.75</v>
-      </c>
-    </row>
-    <row r="187" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM187" s="20">
-        <v>1656616.26</v>
-      </c>
-      <c r="AN187" s="21">
+      <c r="DN356" s="17">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="357" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM357" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN357" s="17">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="358" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM358" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN358" s="17">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="359" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM359" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN359" s="17">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="360" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM360" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN360" s="17">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="361" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM361" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN361" s="17">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="362" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM362" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN362" s="17">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="363" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM363" s="15">
         <v>200000</v>
       </c>
-      <c r="AO187" s="21">
-        <v>2000000</v>
-      </c>
-      <c r="AR187" s="6">
-        <f t="shared" si="1"/>
-        <v>343383.74</v>
-      </c>
-      <c r="DA187" s="15">
-        <v>84335.96</v>
-      </c>
-      <c r="DB187" s="17">
-        <v>757510.71</v>
-      </c>
-    </row>
-    <row r="188" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM188" s="15">
-        <v>1740170.13</v>
-      </c>
-      <c r="AN188" s="16" t="s">
+      <c r="DN363" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="364" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM364" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO188" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="AR188" s="6">
-        <f t="shared" si="1"/>
-        <v>259829.87000000011</v>
-      </c>
-      <c r="DA188" s="15">
-        <v>77908.740000000005</v>
-      </c>
-      <c r="DB188" s="17">
-        <v>835419.45</v>
-      </c>
-    </row>
-    <row r="189" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM189" s="15">
-        <v>1780340.26</v>
-      </c>
-      <c r="AN189" s="16" t="s">
+      <c r="DN364" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="365" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM365" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO189" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="AR189" s="6">
-        <f t="shared" si="1"/>
-        <v>219659.74</v>
-      </c>
-      <c r="DA189" s="15">
-        <v>102010.82</v>
-      </c>
-      <c r="DB189" s="17">
-        <v>937430.27</v>
-      </c>
-    </row>
-    <row r="190" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM190" s="15">
-        <v>1823724.01</v>
-      </c>
-      <c r="AN190" s="16" t="s">
+      <c r="DN365" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="366" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM366" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO190" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="AR190" s="6">
-        <f t="shared" si="1"/>
-        <v>176275.99</v>
-      </c>
-      <c r="DA190" s="15">
-        <v>148834.70000000001</v>
-      </c>
-      <c r="DB190" s="17">
-        <v>1086264.97</v>
-      </c>
-    </row>
-    <row r="191" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM191" s="15">
-        <v>1854253.31</v>
-      </c>
-      <c r="AN191" s="16" t="s">
+      <c r="DN366" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="367" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM367" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO191" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="AR191" s="6">
-        <f t="shared" si="1"/>
-        <v>145746.68999999994</v>
-      </c>
-      <c r="DA191" s="15">
-        <v>116948.59</v>
-      </c>
-      <c r="DB191" s="17">
-        <v>1203213.56</v>
-      </c>
-    </row>
-    <row r="192" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM192" s="15">
-        <v>1884782.61</v>
-      </c>
-      <c r="AN192" s="16" t="s">
+      <c r="DN367" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="368" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM368" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO192" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="AR192" s="6">
-        <f t="shared" si="1"/>
-        <v>115217.3899999999</v>
-      </c>
-      <c r="DA192" s="15">
-        <v>107307.76</v>
-      </c>
-      <c r="DB192" s="17">
-        <v>1310521.32</v>
-      </c>
-    </row>
-    <row r="193" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM193" s="15">
-        <v>1915311.91</v>
-      </c>
-      <c r="AN193" s="16" t="s">
+      <c r="DN368" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="369" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM369" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO193" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="AR193" s="6">
-        <f t="shared" si="1"/>
-        <v>84688.090000000084</v>
-      </c>
-      <c r="DA193" s="15">
-        <v>86192.76</v>
-      </c>
-      <c r="DB193" s="17">
-        <v>1396714.08</v>
-      </c>
-    </row>
-    <row r="194" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM194" s="15">
-        <v>1945841.21</v>
-      </c>
-      <c r="AN194" s="16" t="s">
+      <c r="DN369" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="370" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM370" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO194" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="AR194" s="6">
-        <f t="shared" si="1"/>
-        <v>54158.790000000037</v>
-      </c>
-      <c r="DA194" s="15">
-        <v>43633.74</v>
-      </c>
-      <c r="DB194" s="17">
-        <v>1440347.83</v>
-      </c>
-    </row>
-    <row r="195" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM195" s="15">
-        <v>1973156.9</v>
-      </c>
-      <c r="AN195" s="17">
+      <c r="DN370" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="371" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM371" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN371" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="372" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM372" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN372" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="373" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM373" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN373" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="374" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM374" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN374" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="375" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM375" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN375" s="17">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="376" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM376" s="15">
         <v>200000</v>
       </c>
-      <c r="AO195" s="17">
-        <v>2200000</v>
-      </c>
-      <c r="AR195" s="6">
-        <f t="shared" si="1"/>
-        <v>226843.10000000009</v>
-      </c>
-      <c r="DA195" s="15">
-        <v>62915.41</v>
-      </c>
-      <c r="DB195" s="17">
-        <v>1503263.23</v>
-      </c>
-    </row>
-    <row r="196" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM196" s="15">
-        <v>1997258.98</v>
-      </c>
-      <c r="AN196" s="16" t="s">
+      <c r="DN376" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="377" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM377" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO196" s="17">
-        <v>2200000</v>
-      </c>
-      <c r="AR196" s="6">
-        <f t="shared" si="1"/>
-        <v>202741.02000000002</v>
-      </c>
-      <c r="DA196" s="15">
-        <v>58094.99</v>
-      </c>
-      <c r="DB196" s="17">
-        <v>1561358.22</v>
-      </c>
-    </row>
-    <row r="197" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM197" s="15">
-        <v>2021361.06</v>
-      </c>
-      <c r="AN197" s="16" t="s">
+      <c r="DN377" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="378" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM378" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO197" s="17">
-        <v>2200000</v>
-      </c>
-      <c r="AR197" s="6">
-        <f t="shared" si="1"/>
-        <v>178638.93999999994</v>
-      </c>
-      <c r="DA197" s="15">
-        <v>48430.69</v>
-      </c>
-      <c r="DB197" s="17">
-        <v>1609788.91</v>
-      </c>
-    </row>
-    <row r="198" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM198" s="15">
-        <v>2045463.14</v>
-      </c>
-      <c r="AN198" s="16" t="s">
+      <c r="DN378" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="379" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM379" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO198" s="17">
-        <v>2200000</v>
-      </c>
-      <c r="AR198" s="6">
-        <f t="shared" si="1"/>
-        <v>154536.8600000001</v>
-      </c>
-      <c r="DA198" s="15">
-        <v>48430.69</v>
-      </c>
-      <c r="DB198" s="17">
-        <v>1658219.6</v>
-      </c>
-    </row>
-    <row r="199" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM199" s="20">
-        <v>2045463.14</v>
-      </c>
-      <c r="AN199" s="21">
-        <v>200000</v>
-      </c>
-      <c r="AO199" s="21">
-        <v>2200000</v>
-      </c>
-      <c r="AR199" s="6">
-        <f t="shared" si="1"/>
-        <v>154536.8600000001</v>
-      </c>
-      <c r="DA199" s="15">
-        <v>40396.660000000003</v>
-      </c>
-      <c r="DB199" s="17">
-        <v>1698616.26</v>
-      </c>
-    </row>
-    <row r="200" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM200" s="15">
-        <v>2093667.3</v>
-      </c>
-      <c r="AN200" s="16" t="s">
+      <c r="DN379" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="380" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM380" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO200" s="17">
-        <v>2200000</v>
-      </c>
-      <c r="AR200" s="6">
-        <f t="shared" si="1"/>
-        <v>106332.69999999995</v>
-      </c>
-      <c r="DA200" s="15">
-        <v>40170.129999999997</v>
-      </c>
-      <c r="DB200" s="17">
-        <v>1738786.39</v>
-      </c>
-    </row>
-    <row r="201" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM201" s="15">
-        <v>2117769.38</v>
-      </c>
-      <c r="AN201" s="16" t="s">
+      <c r="DN380" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="381" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM381" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO201" s="17">
-        <v>2200000</v>
-      </c>
-      <c r="AR201" s="6">
-        <f t="shared" si="1"/>
-        <v>82230.620000000112</v>
-      </c>
-      <c r="DA201" s="15">
-        <v>43383.74</v>
-      </c>
-      <c r="DB201" s="17">
-        <v>1782170.13</v>
-      </c>
-    </row>
-    <row r="202" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM202" s="15">
-        <v>2137051.04</v>
-      </c>
-      <c r="AN202" s="17">
-        <v>200000</v>
-      </c>
-      <c r="AO202" s="17">
-        <v>2400000</v>
-      </c>
-      <c r="AR202" s="6">
-        <f t="shared" si="1"/>
-        <v>262948.95999999996</v>
-      </c>
-      <c r="DA202" s="15">
-        <v>40170.129999999997</v>
-      </c>
-      <c r="DB202" s="17">
-        <v>1822340.26</v>
-      </c>
-    </row>
-    <row r="203" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM203" s="15">
-        <v>2151512.29</v>
-      </c>
-      <c r="AN203" s="16" t="s">
+      <c r="DN381" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="382" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM382" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="AO203" s="17">
-        <v>2400000</v>
-      </c>
-      <c r="AR203" s="6">
-        <f t="shared" si="1"/>
-        <v>248487.70999999996</v>
-      </c>
-      <c r="DA203" s="15">
-        <v>43383.74</v>
-      </c>
-      <c r="DB203" s="17">
-        <v>1865724.01</v>
-      </c>
-    </row>
-    <row r="204" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM204" s="15">
-        <v>2165973.5299999998</v>
-      </c>
-      <c r="AN204" s="16" t="s">
+      <c r="DN382" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="383" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM383" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO204" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR204" s="6">
-        <f>AO204-AM204</f>
-        <v>234026.4700000002</v>
-      </c>
-      <c r="DA204" s="15">
-        <v>30529.3</v>
-      </c>
-      <c r="DB204" s="17">
-        <v>1896253.31</v>
-      </c>
-    </row>
-    <row r="205" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM205" s="15">
-        <v>2180434.7799999998</v>
-      </c>
-      <c r="AN205" s="16" t="s">
+      <c r="DN383" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="384" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM384" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO205" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR205" s="6">
-        <f t="shared" si="1"/>
-        <v>219565.2200000002</v>
-      </c>
-      <c r="DA205" s="15">
-        <v>30529.3</v>
-      </c>
-      <c r="DB205" s="17">
-        <v>1926782.61</v>
-      </c>
-    </row>
-    <row r="206" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM206" s="15">
-        <v>2190075.61</v>
-      </c>
-      <c r="AN206" s="16" t="s">
+      <c r="DN384" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="385" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM385" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO206" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR206" s="6">
-        <f t="shared" si="1"/>
-        <v>209924.39000000013</v>
-      </c>
-      <c r="DA206" s="15">
-        <v>30529.3</v>
-      </c>
-      <c r="DB206" s="17">
-        <v>1957311.91</v>
-      </c>
-    </row>
-    <row r="207" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM207" s="15">
-        <v>2199716.4500000002</v>
-      </c>
-      <c r="AN207" s="16" t="s">
+      <c r="DN385" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="386" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM386" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO207" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR207" s="6">
-        <f t="shared" si="1"/>
-        <v>200283.54999999981</v>
-      </c>
-      <c r="DA207" s="15">
-        <v>30529.3</v>
-      </c>
-      <c r="DB207" s="17">
-        <v>1987841.21</v>
-      </c>
-    </row>
-    <row r="208" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM208" s="15">
-        <v>2209357.2799999998</v>
-      </c>
-      <c r="AN208" s="16" t="s">
+      <c r="DN386" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="387" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM387" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO208" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR208" s="6">
-        <f t="shared" si="1"/>
-        <v>190642.7200000002</v>
-      </c>
-      <c r="DA208" s="15">
-        <v>27315.69</v>
-      </c>
-      <c r="DB208" s="17">
-        <v>2015156.9</v>
-      </c>
-    </row>
-    <row r="209" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM209" s="15">
-        <v>2218998.11</v>
-      </c>
-      <c r="AN209" s="16" t="s">
+      <c r="DN387" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="388" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM388" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO209" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR209" s="6">
-        <f t="shared" si="1"/>
-        <v>181001.89000000013</v>
-      </c>
-      <c r="DA209" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB209" s="17">
-        <v>2039258.98</v>
-      </c>
-    </row>
-    <row r="210" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM210" s="15">
-        <v>2225425.33</v>
-      </c>
-      <c r="AN210" s="16" t="s">
+      <c r="DN388" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="389" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM389" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO210" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR210" s="6">
-        <f t="shared" si="1"/>
-        <v>174574.66999999993</v>
-      </c>
-      <c r="DA210" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB210" s="17">
-        <v>2063361.06</v>
-      </c>
-    </row>
-    <row r="211" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM211" s="20">
-        <v>2225425.33</v>
-      </c>
-      <c r="AN211" s="21">
-        <v>200000</v>
-      </c>
-      <c r="AO211" s="21">
-        <v>2400000</v>
-      </c>
-      <c r="AR211" s="6">
-        <f t="shared" si="1"/>
-        <v>174574.66999999993</v>
-      </c>
-      <c r="DA211" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB211" s="17">
-        <v>2087463.14</v>
-      </c>
-    </row>
-    <row r="212" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM212" s="15">
-        <v>2244706.9900000002</v>
-      </c>
-      <c r="AN212" s="16" t="s">
+      <c r="DN389" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="390" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM390" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO212" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR212" s="6">
-        <f t="shared" ref="AR212:AR244" si="2">AO212-AM212</f>
-        <v>155293.00999999978</v>
-      </c>
-      <c r="DA212" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB212" s="17">
-        <v>2111565.2200000002</v>
-      </c>
-    </row>
-    <row r="213" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM213" s="15">
-        <v>2254347.83</v>
-      </c>
-      <c r="AN213" s="16" t="s">
+      <c r="DN390" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="391" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM391" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO213" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR213" s="6">
-        <f t="shared" si="2"/>
-        <v>145652.16999999993</v>
-      </c>
-      <c r="DA213" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB213" s="17">
-        <v>2135667.2999999998</v>
-      </c>
-    </row>
-    <row r="214" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM214" s="15">
-        <v>2263988.66</v>
-      </c>
-      <c r="AN214" s="16" t="s">
+      <c r="DN391" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="392" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM392" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO214" s="16">
-        <v>2400000</v>
-      </c>
-      <c r="AR214" s="6">
-        <f t="shared" si="2"/>
-        <v>136011.33999999985</v>
-      </c>
-      <c r="DA214" s="15">
-        <v>24102.080000000002</v>
-      </c>
-      <c r="DB214" s="17">
-        <v>2159769.38</v>
-      </c>
-    </row>
-    <row r="215" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM215" s="15">
-        <v>2273629.4900000002</v>
-      </c>
-      <c r="AN215" s="17">
-        <v>150000</v>
-      </c>
-      <c r="AO215" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR215" s="6">
-        <f t="shared" si="2"/>
-        <v>276370.50999999978</v>
-      </c>
-      <c r="DA215" s="15">
-        <v>19281.66</v>
-      </c>
-      <c r="DB215" s="17">
-        <v>2179051.04</v>
-      </c>
-    </row>
-    <row r="216" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM216" s="15">
-        <v>2283270.3199999998</v>
-      </c>
-      <c r="AN216" s="16" t="s">
+      <c r="DN392" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="393" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM393" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO216" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR216" s="6">
-        <f t="shared" si="2"/>
-        <v>266729.68000000017</v>
-      </c>
-      <c r="DA216" s="15">
-        <v>14461.25</v>
-      </c>
-      <c r="DB216" s="17">
-        <v>2193512.29</v>
-      </c>
-    </row>
-    <row r="217" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM217" s="15">
-        <v>2292911.15</v>
-      </c>
-      <c r="AN217" s="16" t="s">
+      <c r="DN393" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="394" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM394" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO217" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR217" s="6">
-        <f t="shared" si="2"/>
-        <v>257088.85000000009</v>
-      </c>
-      <c r="DA217" s="15">
-        <v>14461.25</v>
-      </c>
-      <c r="DB217" s="17">
-        <v>2207973.5299999998</v>
-      </c>
-    </row>
-    <row r="218" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM218" s="15">
-        <v>2302551.98</v>
-      </c>
-      <c r="AN218" s="16" t="s">
+      <c r="DN394" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="395" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM395" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO218" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR218" s="6">
-        <f t="shared" si="2"/>
-        <v>247448.02000000002</v>
-      </c>
-      <c r="DA218" s="15">
-        <v>14461.25</v>
-      </c>
-      <c r="DB218" s="17">
-        <v>2222434.7799999998</v>
-      </c>
-    </row>
-    <row r="219" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM219" s="15">
-        <v>2312192.8199999998</v>
-      </c>
-      <c r="AN219" s="16" t="s">
+      <c r="DN395" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="396" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM396" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="AO219" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR219" s="6">
-        <f t="shared" si="2"/>
-        <v>237807.18000000017</v>
-      </c>
-      <c r="DA219" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB219" s="17">
-        <v>2232075.61</v>
-      </c>
-    </row>
-    <row r="220" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM220" s="15">
-        <v>2321833.65</v>
-      </c>
-      <c r="AN220" s="16" t="s">
+      <c r="DN396" s="20">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="397" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM397" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO220" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR220" s="6">
-        <f t="shared" si="2"/>
-        <v>228166.35000000009</v>
-      </c>
-      <c r="DA220" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB220" s="17">
-        <v>2241716.4500000002</v>
-      </c>
-    </row>
-    <row r="221" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM221" s="15">
-        <v>2334688.09</v>
-      </c>
-      <c r="AN221" s="22" t="s">
+      <c r="DN397" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="398" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM398" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO221" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR221" s="6">
-        <f t="shared" si="2"/>
-        <v>215311.91000000015</v>
-      </c>
-      <c r="DA221" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB221" s="17">
-        <v>2251357.2799999998</v>
-      </c>
-    </row>
-    <row r="222" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM222" s="15">
-        <v>2344328.92</v>
-      </c>
-      <c r="AN222" s="16" t="s">
+      <c r="DN398" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="399" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM399" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO222" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR222" s="6">
-        <f t="shared" si="2"/>
-        <v>205671.08000000007</v>
-      </c>
-      <c r="DA222" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB222" s="17">
-        <v>2260998.11</v>
-      </c>
-    </row>
-    <row r="223" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM223" s="20">
-        <v>2344328.92</v>
-      </c>
-      <c r="AN223" s="21">
-        <v>150000</v>
-      </c>
-      <c r="AO223" s="21">
-        <v>2550000</v>
-      </c>
-      <c r="AR223" s="6">
-        <f t="shared" si="2"/>
-        <v>205671.08000000007</v>
-      </c>
-      <c r="DA223" s="15">
-        <v>6427.22</v>
-      </c>
-      <c r="DB223" s="17">
-        <v>2267425.33</v>
-      </c>
-    </row>
-    <row r="224" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM224" s="15">
-        <v>2363610.59</v>
-      </c>
-      <c r="AN224" s="16" t="s">
+      <c r="DN399" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="400" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM400" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO224" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR224" s="6">
-        <f t="shared" si="2"/>
-        <v>186389.41000000015</v>
-      </c>
-      <c r="DA224" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB224" s="17">
-        <v>2277066.16</v>
-      </c>
-    </row>
-    <row r="225" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM225" s="15">
-        <v>2373251.42</v>
-      </c>
-      <c r="AN225" s="16" t="s">
+      <c r="DN400" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="401" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM401" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO225" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR225" s="6">
-        <f t="shared" si="2"/>
-        <v>176748.58000000007</v>
-      </c>
-      <c r="DA225" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB225" s="17">
-        <v>2286706.9900000002</v>
-      </c>
-    </row>
-    <row r="226" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM226" s="15">
-        <v>2382892.25</v>
-      </c>
-      <c r="AN226" s="16" t="s">
+      <c r="DN401" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="402" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM402" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO226" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR226" s="6">
-        <f t="shared" si="2"/>
-        <v>167107.75</v>
-      </c>
-      <c r="DA226" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB226" s="17">
-        <v>2296347.83</v>
-      </c>
-    </row>
-    <row r="227" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM227" s="15">
-        <v>2389319.4700000002</v>
-      </c>
-      <c r="AN227" s="16" t="s">
+      <c r="DN402" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="403" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM403" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AO227" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR227" s="6">
-        <f t="shared" si="2"/>
-        <v>160680.5299999998</v>
-      </c>
-      <c r="DA227" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB227" s="17">
-        <v>2305988.66</v>
-      </c>
-    </row>
-    <row r="228" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM228" s="15">
-        <v>2402173.91</v>
-      </c>
-      <c r="AN228" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO228" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR228" s="6">
-        <f t="shared" si="2"/>
-        <v>147826.08999999985</v>
-      </c>
-      <c r="DA228" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB228" s="17">
-        <v>2315629.4900000002</v>
-      </c>
-    </row>
-    <row r="229" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM229" s="15">
-        <v>2415028.36</v>
-      </c>
-      <c r="AN229" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO229" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR229" s="6">
-        <f t="shared" si="2"/>
-        <v>134971.64000000013</v>
-      </c>
-      <c r="DA229" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB229" s="17">
-        <v>2325270.3199999998</v>
-      </c>
-    </row>
-    <row r="230" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM230" s="15">
-        <v>2427882.7999999998</v>
-      </c>
-      <c r="AN230" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO230" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR230" s="6">
-        <f t="shared" si="2"/>
-        <v>122117.20000000019</v>
-      </c>
-      <c r="DA230" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB230" s="17">
-        <v>2334911.15</v>
-      </c>
-    </row>
-    <row r="231" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM231" s="15">
-        <v>2440737.2400000002</v>
-      </c>
-      <c r="AN231" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO231" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR231" s="6">
-        <f t="shared" si="2"/>
-        <v>109262.75999999978</v>
-      </c>
-      <c r="DA231" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB231" s="17">
-        <v>2344551.98</v>
-      </c>
-    </row>
-    <row r="232" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM232" s="15">
-        <v>2453591.6800000002</v>
-      </c>
-      <c r="AN232" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO232" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR232" s="6">
-        <f t="shared" si="2"/>
-        <v>96408.319999999832</v>
-      </c>
-      <c r="DA232" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB232" s="17">
-        <v>2354192.8199999998</v>
-      </c>
-    </row>
-    <row r="233" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM233" s="15">
-        <v>2466446.12</v>
-      </c>
-      <c r="AN233" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO233" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR233" s="6">
-        <f t="shared" si="2"/>
-        <v>83553.879999999888</v>
-      </c>
-      <c r="DA233" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB233" s="17">
-        <v>2363833.65</v>
-      </c>
-    </row>
-    <row r="234" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM234" s="15">
-        <v>2479300.5699999998</v>
-      </c>
-      <c r="AN234" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO234" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR234" s="6">
-        <f t="shared" si="2"/>
-        <v>70699.430000000168</v>
-      </c>
-      <c r="DA234" s="15">
-        <v>12854.44</v>
-      </c>
-      <c r="DB234" s="17">
-        <v>2376688.09</v>
-      </c>
-    </row>
-    <row r="235" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM235" s="20">
-        <v>2479300.5699999998</v>
-      </c>
-      <c r="AN235" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO235" s="21">
-        <v>2550000</v>
-      </c>
-      <c r="AR235" s="6">
-        <f t="shared" si="2"/>
-        <v>70699.430000000168</v>
-      </c>
-      <c r="DA235" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB235" s="17">
-        <v>2386328.92</v>
-      </c>
-    </row>
-    <row r="236" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM236" s="15">
-        <v>2505009.4500000002</v>
-      </c>
-      <c r="AN236" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO236" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR236" s="6">
-        <f t="shared" si="2"/>
-        <v>44990.549999999814</v>
-      </c>
-      <c r="DA236" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB236" s="17">
-        <v>2395969.75</v>
-      </c>
-    </row>
-    <row r="237" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM237" s="15">
-        <v>2517863.89</v>
-      </c>
-      <c r="AN237" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO237" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR237" s="6">
-        <f t="shared" si="2"/>
-        <v>32136.10999999987</v>
-      </c>
-      <c r="DA237" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB237" s="17">
-        <v>2405610.59</v>
-      </c>
-    </row>
-    <row r="238" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM238" s="15">
-        <v>2524291.12</v>
-      </c>
-      <c r="AN238" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO238" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR238" s="6">
-        <f t="shared" si="2"/>
-        <v>25708.879999999888</v>
-      </c>
-      <c r="DA238" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB238" s="17">
-        <v>2415251.42</v>
-      </c>
-    </row>
-    <row r="239" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM239" s="15">
-        <v>2530718.34</v>
-      </c>
-      <c r="AN239" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO239" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR239" s="6">
-        <f t="shared" si="2"/>
-        <v>19281.660000000149</v>
-      </c>
-      <c r="DA239" s="15">
-        <v>9640.83</v>
-      </c>
-      <c r="DB239" s="17">
-        <v>2424892.25</v>
-      </c>
-    </row>
-    <row r="240" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM240" s="15">
-        <v>2537145.56</v>
-      </c>
-      <c r="AN240" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO240" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR240" s="6">
-        <f t="shared" si="2"/>
-        <v>12854.439999999944</v>
-      </c>
-      <c r="DA240" s="15">
-        <v>6427.22</v>
-      </c>
-      <c r="DB240" s="17">
-        <v>2431319.4700000002</v>
-      </c>
-    </row>
-    <row r="241" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM241" s="15">
-        <v>2543572.7799999998</v>
-      </c>
-      <c r="AN241" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO241" s="17">
-        <v>2550000</v>
-      </c>
-      <c r="AR241" s="6">
-        <f t="shared" si="2"/>
-        <v>6427.2200000002049</v>
-      </c>
-      <c r="DA241" s="15">
-        <v>12854.44</v>
-      </c>
-      <c r="DB241" s="17">
-        <v>2444173.91</v>
-      </c>
-    </row>
-    <row r="242" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM242" s="15">
-        <v>2550000</v>
-      </c>
-      <c r="AN242" s="17">
-        <v>50000</v>
-      </c>
-      <c r="AO242" s="17">
-        <v>2600000</v>
-      </c>
-      <c r="AR242" s="6">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="DA242" s="15">
-        <v>12854.44</v>
-      </c>
-      <c r="DB242" s="17">
-        <v>2457028.36</v>
-      </c>
-    </row>
-    <row r="243" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM243" s="20">
-        <v>2550000</v>
-      </c>
-      <c r="AN243" s="21">
-        <v>50000</v>
-      </c>
-      <c r="AO243" s="21">
-        <v>2600000</v>
-      </c>
-      <c r="AR243" s="6">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="DA243" s="15">
-        <v>12854.44</v>
-      </c>
-      <c r="DB243" s="17">
-        <v>2469882.7999999998</v>
-      </c>
-    </row>
-    <row r="244" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM244" s="20">
-        <v>2550000</v>
-      </c>
-      <c r="AN244" s="21">
-        <v>2600000</v>
-      </c>
-      <c r="AO244" s="23">
-        <v>2600000</v>
-      </c>
-      <c r="AR244" s="6">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="DA244" s="15">
-        <v>12854.44</v>
-      </c>
-      <c r="DB244" s="17">
-        <v>2482737.2400000002</v>
-      </c>
-    </row>
-    <row r="245" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM245" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="DA245" s="15">
-        <v>12854.44</v>
-      </c>
-      <c r="DB245" s="17">
-        <v>2495591.6800000002</v>
-      </c>
-    </row>
-    <row r="246" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA246" s="15">
-        <v>12854.44</v>
-      </c>
-      <c r="DB246" s="17">
-        <v>2508446.12</v>
-      </c>
-    </row>
-    <row r="247" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA247" s="15">
-        <v>12854.44</v>
-      </c>
-      <c r="DB247" s="17">
-        <v>2521300.5699999998</v>
-      </c>
-    </row>
-    <row r="248" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA248" s="29">
-        <v>12854.44</v>
-      </c>
-      <c r="DB248" s="17">
-        <v>2534155.0099999998</v>
-      </c>
-    </row>
-    <row r="249" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA249" s="29">
-        <v>12854.44</v>
-      </c>
-      <c r="DB249" s="17">
-        <v>2547009.4500000002</v>
-      </c>
-    </row>
-    <row r="250" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA250" s="29">
-        <v>12854.44</v>
-      </c>
-      <c r="DB250" s="17">
-        <v>2559863.89</v>
-      </c>
-    </row>
-    <row r="251" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA251" s="15">
-        <v>6427.22</v>
-      </c>
-      <c r="DB251" s="17">
-        <v>2566291.12</v>
-      </c>
-    </row>
-    <row r="252" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA252" s="15">
-        <v>6427.22</v>
-      </c>
-      <c r="DB252" s="17">
-        <v>2572718.34</v>
-      </c>
-    </row>
-    <row r="253" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA253" s="15">
-        <v>6427.22</v>
-      </c>
-      <c r="DB253" s="17">
-        <v>2579145.56</v>
-      </c>
-    </row>
-    <row r="254" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA254" s="15">
-        <v>6427.22</v>
-      </c>
-      <c r="DB254" s="17">
-        <v>2585572.7799999998</v>
-      </c>
-    </row>
-    <row r="255" spans="39:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DA255" s="15">
-        <v>6427.22</v>
-      </c>
-      <c r="DB255" s="17">
-        <v>2592000</v>
+      <c r="DN403" s="17">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="404" spans="117:118" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DM404" s="15">
+        <v>10000</v>
+      </c>
+      <c r="DN404" s="17">
+        <v>2660000</v>
       </c>
     </row>
   </sheetData>
